--- a/Jogos_da_Semana_FlashScore_2025-03-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-04.xlsx
@@ -1140,13 +1140,13 @@
         <v>3.5</v>
       </c>
       <c r="J5" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="K5" t="n">
         <v>1.85</v>
       </c>
       <c r="L5" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="M5" t="n">
         <v>1.11</v>
@@ -1189,25 +1189,25 @@
         <v>1.6</v>
       </c>
       <c r="AC5" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AE5" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AF5" t="n">
         <v>21</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH5" t="n">
         <v>45</v>
       </c>
       <c r="AI5" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AJ5" t="n">
         <v>5.9</v>
@@ -1219,22 +1219,22 @@
         <v>120</v>
       </c>
       <c r="AM5" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AN5" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AO5" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AP5" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AQ5" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AR5" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AS5" t="n">
         <v>900</v>
@@ -1272,46 +1272,46 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="H6" t="n">
         <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K6" t="n">
         <v>1.95</v>
       </c>
       <c r="L6" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
         <v>7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="P6" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R6" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S6" t="n">
         <v>2.5</v>
       </c>
       <c r="T6" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="U6" t="n">
         <v>4</v>
@@ -1323,7 +1323,7 @@
         <v>5</v>
       </c>
       <c r="X6" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="Y6" t="n">
         <v>1.57</v>
@@ -1341,13 +1341,13 @@
         <v>6</v>
       </c>
       <c r="AD6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG6" t="n">
         <v>21</v>
@@ -1356,7 +1356,7 @@
         <v>41</v>
       </c>
       <c r="AI6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AJ6" t="n">
         <v>6</v>
@@ -1368,19 +1368,19 @@
         <v>67</v>
       </c>
       <c r="AM6" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AN6" t="n">
         <v>17</v>
       </c>
       <c r="AO6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP6" t="n">
         <v>41</v>
       </c>
       <c r="AQ6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR6" t="n">
         <v>41</v>
@@ -1421,46 +1421,46 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H7" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I7" t="n">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="J7" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="K7" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L7" t="n">
-        <v>3.25</v>
+        <v>2.88</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P7" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="R7" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S7" t="n">
         <v>2.35</v>
       </c>
       <c r="T7" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="U7" t="n">
         <v>3.6</v>
@@ -1469,10 +1469,10 @@
         <v>1.28</v>
       </c>
       <c r="W7" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="X7" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="Y7" t="n">
         <v>1.53</v>
@@ -1487,19 +1487,19 @@
         <v>1.73</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE7" t="n">
         <v>13</v>
       </c>
-      <c r="AE7" t="n">
-        <v>12</v>
-      </c>
       <c r="AF7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG7" t="n">
         <v>34</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>29</v>
       </c>
       <c r="AH7" t="n">
         <v>41</v>
@@ -1520,19 +1520,19 @@
         <v>6.5</v>
       </c>
       <c r="AN7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AO7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP7" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AQ7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AS7" t="n">
         <v>1000</v>
@@ -1852,74 +1852,74 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H10" t="n">
-        <v>2.87</v>
+        <v>2.82</v>
       </c>
       <c r="I10" t="n">
         <v>5.6</v>
       </c>
       <c r="J10" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="K10" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L10" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="M10" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="N10" t="n">
-        <v>4.75</v>
+        <v>4.6</v>
       </c>
       <c r="O10" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P10" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
-        <v>2.85</v>
+        <v>2.92</v>
       </c>
       <c r="T10" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="X10" t="n">
         <v>1.12</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="Z10" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AA10" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AC10" t="n">
         <v>4.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AE10" t="n">
         <v>9.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AG10" t="n">
         <v>21</v>
@@ -1928,34 +1928,34 @@
         <v>55</v>
       </c>
       <c r="AI10" t="n">
-        <v>4.75</v>
+        <v>4.6</v>
       </c>
       <c r="AJ10" t="n">
         <v>6.1</v>
       </c>
       <c r="AK10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL10" t="n">
         <v>200</v>
       </c>
       <c r="AM10" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AN10" t="n">
         <v>30</v>
       </c>
       <c r="AO10" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AP10" t="n">
+        <v>150</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>90</v>
+      </c>
+      <c r="AR10" t="n">
         <v>120</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>80</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>100</v>
       </c>
       <c r="AS10" t="n">
         <v>101</v>
@@ -2023,16 +2023,16 @@
         <v>2.63</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R11" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S11" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="T11" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
@@ -2052,7 +2052,7 @@
         <v>2.2</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="AC11" t="n">
         <v>8.5</v>
@@ -2144,7 +2144,7 @@
         <v>3.5</v>
       </c>
       <c r="I12" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J12" t="n">
         <v>2.3</v>
@@ -2156,10 +2156,10 @@
         <v>5.5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O12" t="n">
         <v>1.33</v>
@@ -2184,13 +2184,13 @@
         <v>1.3</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Z12" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AB12" t="n">
         <v>1.8</v>
@@ -2214,7 +2214,7 @@
         <v>29</v>
       </c>
       <c r="AI12" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AJ12" t="n">
         <v>6.5</v>
@@ -2244,7 +2244,7 @@
         <v>41</v>
       </c>
       <c r="AS12" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
     </row>
     <row r="13">
@@ -2279,16 +2279,16 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H13" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I13" t="n">
         <v>2.75</v>
       </c>
       <c r="J13" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K13" t="n">
         <v>1.91</v>
@@ -2297,51 +2297,51 @@
         <v>3.75</v>
       </c>
       <c r="M13" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N13" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P13" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="R13" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="S13" t="n">
-        <v>2.57</v>
+        <v>2.75</v>
       </c>
       <c r="T13" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X13" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Z13" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AA13" t="n">
         <v>2.2</v>
       </c>
       <c r="AB13" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="AC13" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD13" t="n">
         <v>11</v>
@@ -2359,7 +2359,7 @@
         <v>41</v>
       </c>
       <c r="AI13" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AJ13" t="n">
         <v>6.5</v>
@@ -2424,13 +2424,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H14" t="n">
         <v>3.3</v>
       </c>
       <c r="I14" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J14" t="n">
         <v>3.2</v>
@@ -2456,10 +2456,10 @@
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="T14" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
@@ -2476,16 +2476,16 @@
         <v>2.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="AB14" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="AC14" t="n">
         <v>7</v>
       </c>
       <c r="AD14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE14" t="n">
         <v>10</v>
@@ -2597,7 +2597,7 @@
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="T15" t="n">
         <v>2.25</v>
@@ -2621,7 +2621,7 @@
         <v>3.4</v>
       </c>
       <c r="AA15" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="AB15" t="n">
         <v>2.25</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="H16" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I16" t="n">
         <v>2</v>
@@ -2745,7 +2745,7 @@
         <v>2.05</v>
       </c>
       <c r="T16" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
@@ -2762,10 +2762,10 @@
         <v>2.63</v>
       </c>
       <c r="AA16" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="AB16" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="AC16" t="n">
         <v>10</v>
@@ -2890,7 +2890,7 @@
         <v>2.4</v>
       </c>
       <c r="T17" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
@@ -2910,7 +2910,7 @@
         <v>2.05</v>
       </c>
       <c r="AB17" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AC17" t="n">
         <v>7.5</v>
@@ -3028,10 +3028,10 @@
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="T18" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
@@ -3143,10 +3143,10 @@
         <v>3.2</v>
       </c>
       <c r="I19" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J19" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K19" t="n">
         <v>2.05</v>
@@ -3158,7 +3158,7 @@
         <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O19" t="n">
         <v>1.36</v>
@@ -3198,7 +3198,7 @@
         <v>7</v>
       </c>
       <c r="AD19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE19" t="n">
         <v>9.5</v>
@@ -3207,7 +3207,7 @@
         <v>21</v>
       </c>
       <c r="AG19" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH19" t="n">
         <v>34</v>
@@ -3237,7 +3237,7 @@
         <v>34</v>
       </c>
       <c r="AQ19" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR19" t="n">
         <v>41</v>
@@ -3278,13 +3278,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H20" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I20" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J20" t="n">
         <v>2.3</v>
@@ -3310,10 +3310,10 @@
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="T20" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>2.15</v>
       </c>
       <c r="T21" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
@@ -3563,10 +3563,10 @@
         <v>5</v>
       </c>
       <c r="H22" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I22" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="J22" t="n">
         <v>5.5</v>
@@ -3595,7 +3595,7 @@
         <v>2.15</v>
       </c>
       <c r="T22" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
@@ -3704,7 +3704,7 @@
         <v>2.5</v>
       </c>
       <c r="H23" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I23" t="n">
         <v>2.9</v>
@@ -3713,10 +3713,10 @@
         <v>3.2</v>
       </c>
       <c r="K23" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L23" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M23" t="n">
         <v>1.07</v>
@@ -3733,33 +3733,33 @@
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T23" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="X23" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Z23" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AA23" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AB23" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AC23" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD23" t="n">
         <v>12</v>
@@ -3774,25 +3774,25 @@
         <v>21</v>
       </c>
       <c r="AH23" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ23" t="n">
         <v>6</v>
       </c>
       <c r="AK23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL23" t="n">
         <v>51</v>
       </c>
       <c r="AM23" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AN23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO23" t="n">
         <v>11</v>
@@ -3801,13 +3801,13 @@
         <v>29</v>
       </c>
       <c r="AQ23" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR23" t="n">
         <v>34</v>
       </c>
       <c r="AS23" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24">
@@ -3848,7 +3848,7 @@
         <v>3.3</v>
       </c>
       <c r="I24" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="J24" t="n">
         <v>2.63</v>
@@ -3877,7 +3877,7 @@
         <v>2.1</v>
       </c>
       <c r="T24" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
@@ -3924,7 +3924,7 @@
         <v>6.5</v>
       </c>
       <c r="AK24" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL24" t="n">
         <v>51</v>
@@ -3983,7 +3983,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="H25" t="n">
         <v>3.75</v>
@@ -4015,7 +4015,7 @@
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="T25" t="n">
         <v>2.1</v>
@@ -4124,7 +4124,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="H26" t="n">
         <v>3.9</v>
@@ -4156,10 +4156,10 @@
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="T26" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
@@ -4283,13 +4283,13 @@
         <v>7</v>
       </c>
       <c r="M27" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N27" t="n">
         <v>15</v>
       </c>
       <c r="O27" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="P27" t="n">
         <v>4.5</v>
@@ -4312,7 +4312,7 @@
         <v>2.5</v>
       </c>
       <c r="X27" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Y27" t="n">
         <v>1.29</v>
@@ -4410,22 +4410,22 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="H28" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="I28" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J28" t="n">
         <v>2.55</v>
       </c>
       <c r="K28" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L28" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
@@ -4433,12 +4433,12 @@
         <v>1.3</v>
       </c>
       <c r="P28" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="T28" t="n">
         <v>1.72</v>
@@ -4446,7 +4446,7 @@
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
       <c r="W28" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="X28" t="n">
         <v>1.28</v>
@@ -4455,7 +4455,7 @@
         <v>1.42</v>
       </c>
       <c r="Z28" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="AA28" t="n">
         <v>1.72</v>
@@ -4464,16 +4464,16 @@
         <v>1.9</v>
       </c>
       <c r="AC28" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AD28" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AE28" t="n">
         <v>8.5</v>
       </c>
       <c r="AF28" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AG28" t="n">
         <v>16.5</v>
@@ -4482,34 +4482,34 @@
         <v>27</v>
       </c>
       <c r="AI28" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AJ28" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AK28" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AL28" t="n">
         <v>65</v>
       </c>
       <c r="AM28" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AN28" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AO28" t="n">
         <v>12</v>
       </c>
       <c r="AP28" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AQ28" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AR28" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AS28" t="n">
         <v>500</v>
@@ -4817,22 +4817,22 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="H31" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I31" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="J31" t="n">
         <v>5.5</v>
       </c>
       <c r="K31" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L31" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="M31" t="n">
         <v>1.01</v>
@@ -4841,18 +4841,18 @@
         <v>13</v>
       </c>
       <c r="O31" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P31" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="T31" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="U31" t="n">
         <v>1.8</v>
@@ -4867,10 +4867,10 @@
         <v>1.44</v>
       </c>
       <c r="Y31" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Z31" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AA31" t="n">
         <v>1.8</v>
@@ -4879,16 +4879,16 @@
         <v>1.91</v>
       </c>
       <c r="AC31" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD31" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE31" t="n">
         <v>19</v>
       </c>
       <c r="AF31" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG31" t="n">
         <v>41</v>
@@ -4900,7 +4900,7 @@
         <v>13</v>
       </c>
       <c r="AJ31" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AK31" t="n">
         <v>17</v>
@@ -4986,18 +4986,18 @@
         <v>9</v>
       </c>
       <c r="O32" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P32" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T32" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
@@ -5244,28 +5244,28 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="H34" t="n">
         <v>3.3</v>
       </c>
       <c r="I34" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="J34" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K34" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L34" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M34" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N34" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O34" t="n">
         <v>1.4</v>
@@ -5276,10 +5276,10 @@
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="T34" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
@@ -5296,22 +5296,22 @@
         <v>2.5</v>
       </c>
       <c r="AA34" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AB34" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AC34" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD34" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE34" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF34" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG34" t="n">
         <v>19</v>
@@ -5320,31 +5320,31 @@
         <v>34</v>
       </c>
       <c r="AI34" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AJ34" t="n">
         <v>6.5</v>
       </c>
       <c r="AK34" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>9</v>
+      </c>
+      <c r="AN34" t="n">
         <v>17</v>
       </c>
-      <c r="AL34" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>15</v>
-      </c>
       <c r="AO34" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ34" t="n">
         <v>34</v>
-      </c>
-      <c r="AQ34" t="n">
-        <v>29</v>
       </c>
       <c r="AR34" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-04.xlsx
@@ -993,19 +993,19 @@
         <v>3.45</v>
       </c>
       <c r="H4" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J4" t="n">
         <v>4.15</v>
       </c>
       <c r="K4" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="L4" t="n">
-        <v>2.92</v>
+        <v>2.87</v>
       </c>
       <c r="M4" t="n">
         <v>1.11</v>
@@ -1030,7 +1030,7 @@
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="X4" t="n">
         <v>1.14</v>
@@ -1042,7 +1042,7 @@
         <v>2.15</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="AB4" t="n">
         <v>1.57</v>
@@ -1063,34 +1063,34 @@
         <v>40</v>
       </c>
       <c r="AH4" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AI4" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>6.1</v>
       </c>
-      <c r="AJ4" t="n">
-        <v>5.9</v>
-      </c>
       <c r="AK4" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AL4" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AM4" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AN4" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AO4" t="n">
         <v>9.75</v>
       </c>
       <c r="AP4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR4" t="n">
         <v>45</v>
@@ -1140,13 +1140,13 @@
         <v>3.5</v>
       </c>
       <c r="J5" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="K5" t="n">
         <v>1.85</v>
       </c>
       <c r="L5" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="M5" t="n">
         <v>1.11</v>
@@ -1189,25 +1189,25 @@
         <v>1.6</v>
       </c>
       <c r="AC5" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AE5" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AF5" t="n">
         <v>21</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH5" t="n">
         <v>45</v>
       </c>
       <c r="AI5" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AJ5" t="n">
         <v>5.9</v>
@@ -1219,22 +1219,22 @@
         <v>120</v>
       </c>
       <c r="AM5" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AN5" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AP5" t="n">
         <v>50</v>
       </c>
       <c r="AQ5" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AR5" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AS5" t="n">
         <v>900</v>
@@ -1314,10 +1314,10 @@
         <v>1.5</v>
       </c>
       <c r="U6" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="V6" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W6" t="n">
         <v>5</v>
@@ -1442,7 +1442,7 @@
         <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O7" t="n">
         <v>1.41</v>
@@ -1570,28 +1570,28 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
       <c r="I8" t="n">
-        <v>2.77</v>
+        <v>2.82</v>
       </c>
       <c r="J8" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="K8" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="L8" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="M8" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="N8" t="n">
-        <v>4.7</v>
+        <v>4.55</v>
       </c>
       <c r="O8" t="n">
         <v>1.62</v>
@@ -1602,15 +1602,15 @@
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="T8" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="X8" t="n">
         <v>1.13</v>
@@ -1628,49 +1628,49 @@
         <v>1.62</v>
       </c>
       <c r="AC8" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AD8" t="n">
         <v>13.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AF8" t="n">
         <v>40</v>
       </c>
       <c r="AG8" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AH8" t="n">
         <v>55</v>
       </c>
       <c r="AI8" t="n">
-        <v>4.7</v>
+        <v>4.55</v>
       </c>
       <c r="AJ8" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="AK8" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AL8" t="n">
         <v>120</v>
       </c>
       <c r="AM8" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="AN8" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AP8" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AQ8" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AR8" t="n">
         <v>55</v>
@@ -2011,42 +2011,42 @@
         <v>2.63</v>
       </c>
       <c r="M11" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O11" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="P11" t="n">
-        <v>2.63</v>
+        <v>2.57</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="R11" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="S11" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="T11" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="X11" t="n">
         <v>1.17</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="AA11" t="n">
         <v>2.2</v>
@@ -2156,24 +2156,24 @@
         <v>5.5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
         <v>10</v>
       </c>
       <c r="O12" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="P12" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="T12" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
@@ -2181,13 +2181,13 @@
         <v>3.5</v>
       </c>
       <c r="X12" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="Z12" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="AA12" t="n">
         <v>1.91</v>
@@ -2297,39 +2297,39 @@
         <v>3.75</v>
       </c>
       <c r="M13" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O13" t="n">
-        <v>1.57</v>
+        <v>1.49</v>
       </c>
       <c r="P13" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="R13" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="S13" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="T13" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X13" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="Z13" t="n">
         <v>2.2</v>
@@ -2442,13 +2442,13 @@
         <v>3.75</v>
       </c>
       <c r="M14" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
         <v>8</v>
       </c>
       <c r="O14" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P14" t="n">
         <v>3</v>
@@ -2467,10 +2467,10 @@
         <v>4.33</v>
       </c>
       <c r="X14" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Z14" t="n">
         <v>2.5</v>
@@ -2485,7 +2485,7 @@
         <v>7</v>
       </c>
       <c r="AD14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE14" t="n">
         <v>10</v>
@@ -2583,13 +2583,13 @@
         <v>4</v>
       </c>
       <c r="M15" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N15" t="n">
         <v>15</v>
       </c>
       <c r="O15" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="P15" t="n">
         <v>4.5</v>
@@ -2603,19 +2603,19 @@
         <v>2.25</v>
       </c>
       <c r="U15" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="V15" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W15" t="n">
         <v>2.5</v>
       </c>
       <c r="X15" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="Z15" t="n">
         <v>3.4</v>
@@ -2996,13 +2996,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H18" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I18" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J18" t="n">
         <v>2.5</v>
@@ -3048,16 +3048,16 @@
         <v>2.75</v>
       </c>
       <c r="AA18" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AB18" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AC18" t="n">
         <v>7.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE18" t="n">
         <v>8.5</v>
@@ -3084,10 +3084,10 @@
         <v>51</v>
       </c>
       <c r="AM18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO18" t="n">
         <v>15</v>
@@ -3137,28 +3137,28 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="H19" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I19" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="J19" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K19" t="n">
         <v>2.05</v>
       </c>
       <c r="L19" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M19" t="n">
         <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O19" t="n">
         <v>1.36</v>
@@ -3177,10 +3177,10 @@
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="X19" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Y19" t="n">
         <v>1.44</v>
@@ -3195,16 +3195,16 @@
         <v>1.91</v>
       </c>
       <c r="AC19" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE19" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG19" t="n">
         <v>21</v>
@@ -3225,22 +3225,22 @@
         <v>51</v>
       </c>
       <c r="AM19" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AN19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR19" t="n">
         <v>34</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>41</v>
       </c>
       <c r="AS19" t="n">
         <v>301</v>
@@ -3419,16 +3419,16 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H21" t="n">
         <v>3.3</v>
       </c>
       <c r="I21" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J21" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K21" t="n">
         <v>2.05</v>
@@ -3454,7 +3454,7 @@
         <v>2.15</v>
       </c>
       <c r="T21" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
@@ -3480,19 +3480,19 @@
         <v>7</v>
       </c>
       <c r="AD21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE21" t="n">
         <v>9.5</v>
       </c>
-      <c r="AE21" t="n">
-        <v>9</v>
-      </c>
       <c r="AF21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG21" t="n">
         <v>19</v>
       </c>
       <c r="AH21" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI21" t="n">
         <v>8.5</v>
@@ -3510,13 +3510,13 @@
         <v>9</v>
       </c>
       <c r="AN21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO21" t="n">
         <v>12</v>
       </c>
       <c r="AP21" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ21" t="n">
         <v>29</v>
@@ -3595,7 +3595,7 @@
         <v>2.15</v>
       </c>
       <c r="T22" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
@@ -3736,7 +3736,7 @@
         <v>2.05</v>
       </c>
       <c r="T23" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
@@ -3863,7 +3863,7 @@
         <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O24" t="n">
         <v>1.36</v>
@@ -3874,7 +3874,7 @@
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="T24" t="n">
         <v>1.67</v>
@@ -4015,7 +4015,7 @@
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="T25" t="n">
         <v>2.1</v>
@@ -4156,10 +4156,10 @@
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="T26" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
@@ -4277,42 +4277,42 @@
         <v>1.83</v>
       </c>
       <c r="K27" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L27" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M27" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O27" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="P27" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="T27" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="U27" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="V27" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="W27" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="X27" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="Y27" t="n">
         <v>1.29</v>
@@ -4321,16 +4321,16 @@
         <v>3.5</v>
       </c>
       <c r="AA27" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AB27" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AC27" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE27" t="n">
         <v>8.5</v>
@@ -4345,7 +4345,7 @@
         <v>23</v>
       </c>
       <c r="AI27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ27" t="n">
         <v>9.5</v>
@@ -4547,22 +4547,22 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="H29" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I29" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="J29" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="K29" t="n">
         <v>2.22</v>
       </c>
       <c r="L29" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
@@ -4586,54 +4586,54 @@
         <v>2.65</v>
       </c>
       <c r="X29" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AB29" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AC29" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AD29" t="n">
         <v>6.9</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>7.1</v>
       </c>
       <c r="AE29" t="n">
         <v>8</v>
       </c>
       <c r="AF29" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AG29" t="n">
         <v>12</v>
       </c>
       <c r="AH29" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI29" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AJ29" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AK29" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AL29" t="n">
         <v>80</v>
       </c>
       <c r="AM29" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN29" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AO29" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AP29" t="n">
         <v>120</v>
@@ -4823,7 +4823,7 @@
         <v>4.1</v>
       </c>
       <c r="I31" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="J31" t="n">
         <v>5.5</v>
@@ -4849,7 +4849,7 @@
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="T31" t="n">
         <v>2.2</v>
@@ -4927,7 +4927,7 @@
         <v>23</v>
       </c>
       <c r="AS31" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="32">
@@ -4962,10 +4962,10 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="H32" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I32" t="n">
         <v>1.83</v>
@@ -4974,16 +4974,16 @@
         <v>4</v>
       </c>
       <c r="K32" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L32" t="n">
         <v>2.4</v>
       </c>
       <c r="M32" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N32" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O32" t="n">
         <v>1.25</v>
@@ -4994,33 +4994,33 @@
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="T32" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
       <c r="W32" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="X32" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Y32" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Z32" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AA32" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AB32" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AC32" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD32" t="n">
         <v>21</v>
@@ -5038,10 +5038,10 @@
         <v>34</v>
       </c>
       <c r="AI32" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ32" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AK32" t="n">
         <v>15</v>
@@ -5050,7 +5050,7 @@
         <v>41</v>
       </c>
       <c r="AM32" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AN32" t="n">
         <v>9.5</v>
@@ -5065,7 +5065,7 @@
         <v>15</v>
       </c>
       <c r="AR32" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AS32" t="n">
         <v>151</v>
@@ -5106,25 +5106,25 @@
         <v>3</v>
       </c>
       <c r="H33" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I33" t="n">
         <v>2.2</v>
       </c>
       <c r="J33" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K33" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L33" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M33" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N33" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="O33" t="n">
         <v>1.3</v>
@@ -5135,10 +5135,10 @@
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr"/>
       <c r="S33" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="T33" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
@@ -5149,19 +5149,19 @@
         <v>1.29</v>
       </c>
       <c r="Y33" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Z33" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AA33" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AB33" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AC33" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD33" t="n">
         <v>15</v>
@@ -5173,25 +5173,25 @@
         <v>34</v>
       </c>
       <c r="AG33" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH33" t="n">
         <v>34</v>
       </c>
       <c r="AI33" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AJ33" t="n">
         <v>6.5</v>
       </c>
       <c r="AK33" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL33" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM33" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AN33" t="n">
         <v>11</v>
@@ -5203,13 +5203,13 @@
         <v>21</v>
       </c>
       <c r="AQ33" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AR33" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AS33" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
     </row>
     <row r="34">

--- a/Jogos_da_Semana_FlashScore_2025-03-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-04.xlsx
@@ -1272,13 +1272,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H6" t="n">
         <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J6" t="n">
         <v>2.88</v>
@@ -1290,16 +1290,16 @@
         <v>4.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="N6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P6" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Q6" t="n">
         <v>1.88</v>
@@ -1323,7 +1323,7 @@
         <v>5</v>
       </c>
       <c r="X6" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="Y6" t="n">
         <v>1.57</v>
@@ -1356,7 +1356,7 @@
         <v>41</v>
       </c>
       <c r="AI6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AJ6" t="n">
         <v>6</v>
@@ -1380,7 +1380,7 @@
         <v>41</v>
       </c>
       <c r="AQ6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR6" t="n">
         <v>41</v>
@@ -1439,16 +1439,16 @@
         <v>2.88</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
         <v>8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P7" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Q7" t="n">
         <v>1.78</v>
@@ -1472,7 +1472,7 @@
         <v>4.33</v>
       </c>
       <c r="X7" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="Y7" t="n">
         <v>1.53</v>
@@ -1852,110 +1852,110 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.83</v>
+        <v>1.65</v>
       </c>
       <c r="H10" t="n">
-        <v>2.82</v>
+        <v>3.1</v>
       </c>
       <c r="I10" t="n">
-        <v>5.6</v>
+        <v>6.4</v>
       </c>
       <c r="J10" t="n">
-        <v>2.55</v>
+        <v>2.32</v>
       </c>
       <c r="K10" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="L10" t="n">
-        <v>6.1</v>
+        <v>6.8</v>
       </c>
       <c r="M10" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="N10" t="n">
-        <v>4.6</v>
+        <v>4.85</v>
       </c>
       <c r="O10" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P10" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
-        <v>2.92</v>
+        <v>2.82</v>
       </c>
       <c r="T10" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="X10" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="Z10" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="AA10" t="n">
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="AC10" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="AE10" t="n">
         <v>9.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AI10" t="n">
-        <v>4.6</v>
+        <v>4.85</v>
       </c>
       <c r="AJ10" t="n">
-        <v>6.1</v>
+        <v>6.7</v>
       </c>
       <c r="AK10" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AL10" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AM10" t="n">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="AN10" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="AO10" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AP10" t="n">
+        <v>175</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>120</v>
+      </c>
+      <c r="AR10" t="n">
         <v>150</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>90</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>120</v>
       </c>
       <c r="AS10" t="n">
         <v>101</v>
@@ -2011,16 +2011,16 @@
         <v>2.63</v>
       </c>
       <c r="M11" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N11" t="n">
         <v>8</v>
       </c>
       <c r="O11" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="P11" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="Q11" t="n">
         <v>1.83</v>
@@ -2040,13 +2040,13 @@
         <v>4.5</v>
       </c>
       <c r="X11" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Z11" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="AA11" t="n">
         <v>2.2</v>
@@ -2156,24 +2156,24 @@
         <v>5.5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
         <v>10</v>
       </c>
       <c r="O12" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="P12" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="T12" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
@@ -2181,13 +2181,13 @@
         <v>3.5</v>
       </c>
       <c r="X12" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Z12" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="AA12" t="n">
         <v>1.91</v>
@@ -2297,22 +2297,22 @@
         <v>3.75</v>
       </c>
       <c r="M13" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N13" t="n">
         <v>7</v>
       </c>
       <c r="O13" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="P13" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R13" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S13" t="n">
         <v>2.63</v>
@@ -2326,10 +2326,10 @@
         <v>5</v>
       </c>
       <c r="X13" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="Z13" t="n">
         <v>2.2</v>
@@ -2442,16 +2442,16 @@
         <v>3.75</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N14" t="n">
         <v>8</v>
       </c>
       <c r="O14" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="P14" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
@@ -2467,10 +2467,10 @@
         <v>4.33</v>
       </c>
       <c r="X14" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Z14" t="n">
         <v>2.5</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="H15" t="n">
         <v>3.75</v>
@@ -2583,13 +2583,13 @@
         <v>4</v>
       </c>
       <c r="M15" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N15" t="n">
         <v>15</v>
       </c>
       <c r="O15" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="P15" t="n">
         <v>4.5</v>
@@ -2612,10 +2612,10 @@
         <v>2.5</v>
       </c>
       <c r="X15" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="Z15" t="n">
         <v>3.4</v>
@@ -2710,22 +2710,22 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="H16" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="J16" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K16" t="n">
         <v>2.1</v>
       </c>
       <c r="L16" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M16" t="n">
         <v>1.07</v>
@@ -2768,10 +2768,10 @@
         <v>1.91</v>
       </c>
       <c r="AC16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE16" t="n">
         <v>13</v>
@@ -2851,13 +2851,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="H17" t="n">
         <v>3.2</v>
       </c>
       <c r="I17" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J17" t="n">
         <v>3.75</v>
@@ -2913,7 +2913,7 @@
         <v>1.7</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD17" t="n">
         <v>13</v>
@@ -2934,7 +2934,7 @@
         <v>7.5</v>
       </c>
       <c r="AJ17" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AK17" t="n">
         <v>19</v>
@@ -2996,34 +2996,34 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="H18" t="n">
         <v>3.5</v>
       </c>
       <c r="I18" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J18" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K18" t="n">
         <v>2.2</v>
       </c>
       <c r="L18" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M18" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O18" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P18" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
@@ -3072,10 +3072,10 @@
         <v>26</v>
       </c>
       <c r="AI18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ18" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AK18" t="n">
         <v>15</v>
@@ -3093,7 +3093,7 @@
         <v>15</v>
       </c>
       <c r="AP18" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AQ18" t="n">
         <v>34</v>
@@ -3102,7 +3102,7 @@
         <v>41</v>
       </c>
       <c r="AS18" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19">
@@ -3137,13 +3137,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H19" t="n">
         <v>3.1</v>
       </c>
       <c r="I19" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J19" t="n">
         <v>3.25</v>
@@ -3158,7 +3158,7 @@
         <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O19" t="n">
         <v>1.36</v>
@@ -3183,10 +3183,10 @@
         <v>1.22</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AA19" t="n">
         <v>1.91</v>
@@ -3225,7 +3225,7 @@
         <v>51</v>
       </c>
       <c r="AM19" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AN19" t="n">
         <v>13</v>
@@ -3278,7 +3278,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="H20" t="n">
         <v>3.5</v>
@@ -3296,10 +3296,10 @@
         <v>5</v>
       </c>
       <c r="M20" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O20" t="n">
         <v>1.25</v>
@@ -3581,7 +3581,7 @@
         <v>1.07</v>
       </c>
       <c r="N22" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O22" t="n">
         <v>1.36</v>
@@ -3592,18 +3592,18 @@
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="T22" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="X22" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Y22" t="n">
         <v>1.44</v>
@@ -3719,10 +3719,10 @@
         <v>3.5</v>
       </c>
       <c r="M23" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O23" t="n">
         <v>1.33</v>
@@ -3842,28 +3842,28 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H24" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I24" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J24" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K24" t="n">
         <v>2.05</v>
       </c>
       <c r="L24" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M24" t="n">
         <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O24" t="n">
         <v>1.36</v>
@@ -3921,7 +3921,7 @@
         <v>8.5</v>
       </c>
       <c r="AJ24" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AK24" t="n">
         <v>15</v>
@@ -4015,10 +4015,10 @@
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="T25" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
@@ -4142,10 +4142,10 @@
         <v>7</v>
       </c>
       <c r="M26" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O26" t="n">
         <v>1.33</v>
@@ -4156,10 +4156,10 @@
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="T26" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
@@ -4823,7 +4823,7 @@
         <v>4.1</v>
       </c>
       <c r="I31" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="J31" t="n">
         <v>5.5</v>
@@ -4849,7 +4849,7 @@
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="T31" t="n">
         <v>2.2</v>
@@ -4962,7 +4962,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="H32" t="n">
         <v>3.6</v>
@@ -4994,18 +4994,18 @@
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="T32" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
       <c r="W32" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="X32" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Y32" t="n">
         <v>1.36</v>
@@ -5020,7 +5020,7 @@
         <v>2</v>
       </c>
       <c r="AC32" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD32" t="n">
         <v>21</v>
@@ -5065,7 +5065,7 @@
         <v>15</v>
       </c>
       <c r="AR32" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AS32" t="n">
         <v>151</v>
@@ -5127,15 +5127,15 @@
         <v>9.5</v>
       </c>
       <c r="O33" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P33" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr"/>
       <c r="S33" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="T33" t="n">
         <v>1.75</v>
@@ -5161,7 +5161,7 @@
         <v>1.91</v>
       </c>
       <c r="AC33" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD33" t="n">
         <v>15</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-04.xlsx
@@ -1219,7 +1219,7 @@
         <v>120</v>
       </c>
       <c r="AM5" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AN5" t="n">
         <v>16.5</v>
@@ -1228,7 +1228,7 @@
         <v>13.5</v>
       </c>
       <c r="AP5" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AQ5" t="n">
         <v>45</v>
@@ -1290,10 +1290,10 @@
         <v>4.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O6" t="n">
         <v>1.44</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="H15" t="n">
         <v>3.75</v>
@@ -2716,7 +2716,7 @@
         <v>3.3</v>
       </c>
       <c r="I16" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="J16" t="n">
         <v>4.5</v>
@@ -2728,10 +2728,10 @@
         <v>2.63</v>
       </c>
       <c r="M16" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O16" t="n">
         <v>1.33</v>
@@ -2851,13 +2851,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="H17" t="n">
         <v>3.2</v>
       </c>
       <c r="I17" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J17" t="n">
         <v>3.75</v>
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="H18" t="n">
         <v>3.5</v>
@@ -3137,13 +3137,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H19" t="n">
         <v>3.1</v>
       </c>
       <c r="I19" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J19" t="n">
         <v>3.25</v>
@@ -3158,21 +3158,21 @@
         <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O19" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P19" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="T19" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr"/>
@@ -3278,7 +3278,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="H20" t="n">
         <v>3.5</v>
@@ -3592,18 +3592,18 @@
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T22" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="X22" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Y22" t="n">
         <v>1.44</v>
@@ -3701,34 +3701,34 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="H23" t="n">
         <v>3.2</v>
       </c>
       <c r="I23" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="J23" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K23" t="n">
         <v>2.1</v>
       </c>
       <c r="L23" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M23" t="n">
         <v>1.06</v>
       </c>
       <c r="N23" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O23" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P23" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
@@ -3736,7 +3736,7 @@
         <v>2.05</v>
       </c>
       <c r="T23" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
@@ -3762,22 +3762,22 @@
         <v>8</v>
       </c>
       <c r="AD23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE23" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF23" t="n">
         <v>23</v>
       </c>
       <c r="AG23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH23" t="n">
         <v>29</v>
       </c>
       <c r="AI23" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AJ23" t="n">
         <v>6</v>
@@ -3789,7 +3789,7 @@
         <v>51</v>
       </c>
       <c r="AM23" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AN23" t="n">
         <v>15</v>
@@ -3798,7 +3798,7 @@
         <v>11</v>
       </c>
       <c r="AP23" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ23" t="n">
         <v>23</v>
@@ -3863,7 +3863,7 @@
         <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O24" t="n">
         <v>1.36</v>
@@ -3983,16 +3983,16 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H25" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I25" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="J25" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K25" t="n">
         <v>2.3</v>
@@ -4044,19 +4044,19 @@
         <v>8.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE25" t="n">
         <v>8.5</v>
       </c>
       <c r="AF25" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG25" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI25" t="n">
         <v>13</v>
@@ -4265,10 +4265,10 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="H27" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I27" t="n">
         <v>6.5</v>
@@ -4280,7 +4280,7 @@
         <v>2.6</v>
       </c>
       <c r="L27" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M27" t="n">
         <v>1.03</v>
@@ -4297,16 +4297,16 @@
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T27" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="U27" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="V27" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="W27" t="n">
         <v>2.38</v>
@@ -4321,22 +4321,22 @@
         <v>3.5</v>
       </c>
       <c r="AA27" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AB27" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AC27" t="n">
         <v>8.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE27" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF27" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AG27" t="n">
         <v>11</v>
@@ -4348,16 +4348,16 @@
         <v>17</v>
       </c>
       <c r="AJ27" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK27" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL27" t="n">
         <v>51</v>
       </c>
       <c r="AM27" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN27" t="n">
         <v>41</v>
@@ -4410,109 +4410,109 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="H28" t="n">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="I28" t="n">
-        <v>3.5</v>
+        <v>4.9</v>
       </c>
       <c r="J28" t="n">
-        <v>2.55</v>
+        <v>2.18</v>
       </c>
       <c r="K28" t="n">
         <v>2.12</v>
       </c>
       <c r="L28" t="n">
-        <v>3.9</v>
+        <v>5.2</v>
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="P28" t="n">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="T28" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
       <c r="W28" t="n">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="X28" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="Y28" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="Z28" t="n">
-        <v>2.47</v>
+        <v>2.55</v>
       </c>
       <c r="AA28" t="n">
-        <v>1.72</v>
+        <v>1.82</v>
       </c>
       <c r="AB28" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AC28" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="AD28" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE28" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF28" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AG28" t="n">
-        <v>16.5</v>
+        <v>13</v>
       </c>
       <c r="AH28" t="n">
         <v>27</v>
       </c>
       <c r="AI28" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AJ28" t="n">
-        <v>6.3</v>
+        <v>7.2</v>
       </c>
       <c r="AK28" t="n">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="AL28" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AM28" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AN28" t="n">
-        <v>19.5</v>
+        <v>28</v>
       </c>
       <c r="AO28" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AP28" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AQ28" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="AR28" t="n">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="AS28" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
     </row>
     <row r="29">
@@ -4550,16 +4550,16 @@
         <v>1.47</v>
       </c>
       <c r="H29" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I29" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="J29" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="K29" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="L29" t="n">
         <v>5.8</v>
@@ -4567,40 +4567,40 @@
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P29" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="T29" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr"/>
       <c r="W29" t="n">
-        <v>2.65</v>
+        <v>2.52</v>
       </c>
       <c r="X29" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="AB29" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="AC29" t="n">
-        <v>6.8</v>
+        <v>7.3</v>
       </c>
       <c r="AD29" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="AE29" t="n">
         <v>8</v>
@@ -4609,16 +4609,16 @@
         <v>10.25</v>
       </c>
       <c r="AG29" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI29" t="n">
         <v>12</v>
       </c>
-      <c r="AH29" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AJ29" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AK29" t="n">
         <v>17.5</v>
@@ -4627,10 +4627,10 @@
         <v>80</v>
       </c>
       <c r="AM29" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AN29" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AO29" t="n">
         <v>19</v>
@@ -4962,7 +4962,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="H32" t="n">
         <v>3.6</v>
@@ -4994,18 +4994,18 @@
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T32" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
       <c r="W32" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="X32" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Y32" t="n">
         <v>1.36</v>
@@ -5020,7 +5020,7 @@
         <v>2</v>
       </c>
       <c r="AC32" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD32" t="n">
         <v>21</v>
@@ -5065,7 +5065,7 @@
         <v>15</v>
       </c>
       <c r="AR32" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AS32" t="n">
         <v>151</v>
@@ -5103,28 +5103,28 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H33" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I33" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="K33" t="n">
         <v>2.1</v>
       </c>
       <c r="L33" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M33" t="n">
         <v>1.06</v>
       </c>
       <c r="N33" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O33" t="n">
         <v>1.33</v>
@@ -5135,18 +5135,18 @@
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr"/>
       <c r="S33" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="T33" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
       <c r="W33" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="X33" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Y33" t="n">
         <v>1.44</v>
@@ -5155,31 +5155,31 @@
         <v>2.63</v>
       </c>
       <c r="AA33" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AB33" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AC33" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>29</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI33" t="n">
         <v>9</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>26</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>9.5</v>
       </c>
       <c r="AJ33" t="n">
         <v>6.5</v>
@@ -5191,25 +5191,25 @@
         <v>51</v>
       </c>
       <c r="AM33" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AN33" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AO33" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP33" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AQ33" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR33" t="n">
         <v>29</v>
       </c>
       <c r="AS33" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
     </row>
     <row r="34">
@@ -5262,10 +5262,10 @@
         <v>4.5</v>
       </c>
       <c r="M34" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N34" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O34" t="n">
         <v>1.4</v>
@@ -5276,10 +5276,10 @@
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="T34" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-03-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-04.xlsx
@@ -990,13 +990,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="I4" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="J4" t="n">
         <v>4.15</v>
@@ -1005,7 +1005,7 @@
         <v>1.88</v>
       </c>
       <c r="L4" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="M4" t="n">
         <v>1.11</v>
@@ -1048,7 +1048,7 @@
         <v>1.57</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AD4" t="n">
         <v>16</v>
@@ -1069,7 +1069,7 @@
         <v>6.2</v>
       </c>
       <c r="AJ4" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AK4" t="n">
         <v>20</v>
@@ -1078,16 +1078,16 @@
         <v>150</v>
       </c>
       <c r="AM4" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AN4" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AO4" t="n">
         <v>9.75</v>
       </c>
       <c r="AP4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ4" t="n">
         <v>22</v>
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H6" t="n">
         <v>3.1</v>
@@ -1326,7 +1326,7 @@
         <v>1.17</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="Z6" t="n">
         <v>2.25</v>
@@ -1427,7 +1427,7 @@
         <v>3.2</v>
       </c>
       <c r="I7" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J7" t="n">
         <v>4.33</v>
@@ -1451,10 +1451,10 @@
         <v>2.63</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="R7" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S7" t="n">
         <v>2.35</v>
@@ -1469,16 +1469,16 @@
         <v>1.28</v>
       </c>
       <c r="W7" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="X7" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="AA7" t="n">
         <v>2</v>
@@ -1576,86 +1576,86 @@
         <v>2.55</v>
       </c>
       <c r="I8" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="J8" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K8" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="L8" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="M8" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="N8" t="n">
-        <v>4.55</v>
+        <v>4.45</v>
       </c>
       <c r="O8" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P8" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>2.85</v>
+        <v>2.95</v>
       </c>
       <c r="T8" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="X8" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="Z8" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="AA8" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AB8" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="AD8" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE8" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AF8" t="n">
         <v>40</v>
       </c>
       <c r="AG8" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH8" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AI8" t="n">
-        <v>4.55</v>
+        <v>4.45</v>
       </c>
       <c r="AJ8" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AK8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL8" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AM8" t="n">
         <v>6.1</v>
@@ -1664,7 +1664,7 @@
         <v>12.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AP8" t="n">
         <v>37</v>
@@ -1711,107 +1711,107 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>5.7</v>
+        <v>4.65</v>
       </c>
       <c r="H9" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="J9" t="n">
-        <v>5.8</v>
+        <v>5.1</v>
       </c>
       <c r="K9" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="L9" t="n">
-        <v>2.27</v>
+        <v>2.55</v>
       </c>
       <c r="M9" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N9" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P9" t="n">
-        <v>2.52</v>
+        <v>2.42</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="n">
-        <v>2.35</v>
+        <v>2.42</v>
       </c>
       <c r="T9" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="n">
-        <v>4.2</v>
+        <v>4.35</v>
       </c>
       <c r="X9" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="Z9" t="n">
-        <v>2.42</v>
+        <v>2.32</v>
       </c>
       <c r="AA9" t="n">
-        <v>2.22</v>
+        <v>2.12</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AC9" t="n">
-        <v>11.75</v>
+        <v>9.75</v>
       </c>
       <c r="AD9" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AE9" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>90</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>55</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>70</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK9" t="n">
         <v>18.5</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AL9" t="n">
         <v>120</v>
       </c>
-      <c r="AG9" t="n">
-        <v>75</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>80</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>150</v>
-      </c>
       <c r="AM9" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="AN9" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AO9" t="n">
         <v>8.75</v>
       </c>
       <c r="AP9" t="n">
-        <v>12.5</v>
+        <v>16</v>
       </c>
       <c r="AQ9" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AR9" t="n">
         <v>40</v>
@@ -1852,28 +1852,28 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H10" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I10" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J10" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="K10" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="L10" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="M10" t="n">
         <v>1.15</v>
       </c>
       <c r="N10" t="n">
-        <v>4.85</v>
+        <v>4.8</v>
       </c>
       <c r="O10" t="n">
         <v>1.62</v>
@@ -1892,49 +1892,49 @@
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="X10" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="Z10" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="AA10" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="AC10" t="n">
         <v>4.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AE10" t="n">
         <v>9.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AH10" t="n">
         <v>60</v>
       </c>
       <c r="AI10" t="n">
-        <v>4.85</v>
+        <v>4.8</v>
       </c>
       <c r="AJ10" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AK10" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL10" t="n">
         <v>250</v>
@@ -1943,19 +1943,19 @@
         <v>10.5</v>
       </c>
       <c r="AN10" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AO10" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AP10" t="n">
         <v>175</v>
       </c>
       <c r="AQ10" t="n">
+        <v>100</v>
+      </c>
+      <c r="AR10" t="n">
         <v>120</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>150</v>
       </c>
       <c r="AS10" t="n">
         <v>101</v>
@@ -2297,36 +2297,36 @@
         <v>3.75</v>
       </c>
       <c r="M13" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N13" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P13" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q13" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R13" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S13" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="T13" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X13" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="Y13" t="n">
         <v>1.62</v>
@@ -2448,10 +2448,10 @@
         <v>8</v>
       </c>
       <c r="O14" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P14" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
@@ -2881,10 +2881,10 @@
         <v>2.63</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="R17" t="n">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="S17" t="n">
         <v>2.4</v>
@@ -3028,18 +3028,18 @@
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="T18" t="n">
-        <v>1.93</v>
+        <v>1.82</v>
       </c>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="X18" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Y18" t="n">
         <v>1.4</v>
@@ -3137,22 +3137,22 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H19" t="n">
         <v>3.1</v>
       </c>
       <c r="I19" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J19" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K19" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L19" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M19" t="n">
         <v>1.07</v>
@@ -3161,10 +3161,10 @@
         <v>9</v>
       </c>
       <c r="O19" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P19" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
@@ -3189,10 +3189,10 @@
         <v>2.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AB19" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AC19" t="n">
         <v>7.5</v>
@@ -3204,16 +3204,16 @@
         <v>10</v>
       </c>
       <c r="AF19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG19" t="n">
         <v>23</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>21</v>
       </c>
       <c r="AH19" t="n">
         <v>34</v>
       </c>
       <c r="AI19" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AJ19" t="n">
         <v>6</v>
@@ -3243,7 +3243,7 @@
         <v>34</v>
       </c>
       <c r="AS19" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
     </row>
     <row r="20">
@@ -3302,18 +3302,18 @@
         <v>11</v>
       </c>
       <c r="O20" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P20" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="n">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="T20" t="n">
-        <v>1.93</v>
+        <v>1.84</v>
       </c>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
@@ -3440,7 +3440,7 @@
         <v>1.07</v>
       </c>
       <c r="N21" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O21" t="n">
         <v>1.36</v>
@@ -3507,7 +3507,7 @@
         <v>51</v>
       </c>
       <c r="AM21" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AN21" t="n">
         <v>15</v>
@@ -3606,10 +3606,10 @@
         <v>1.22</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="Z22" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="AA22" t="n">
         <v>2</v>
@@ -3701,28 +3701,28 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="H23" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I23" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="J23" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="K23" t="n">
         <v>2.1</v>
       </c>
       <c r="L23" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M23" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N23" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="O23" t="n">
         <v>1.3</v>
@@ -3736,7 +3736,7 @@
         <v>2.05</v>
       </c>
       <c r="T23" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
@@ -3747,10 +3747,10 @@
         <v>1.29</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="Z23" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="AA23" t="n">
         <v>1.8</v>
@@ -3759,16 +3759,16 @@
         <v>1.95</v>
       </c>
       <c r="AC23" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE23" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF23" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG23" t="n">
         <v>19</v>
@@ -3777,31 +3777,31 @@
         <v>29</v>
       </c>
       <c r="AI23" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AJ23" t="n">
         <v>6</v>
       </c>
       <c r="AK23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL23" t="n">
         <v>51</v>
       </c>
       <c r="AM23" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AN23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP23" t="n">
         <v>34</v>
       </c>
       <c r="AQ23" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AR23" t="n">
         <v>34</v>
@@ -3888,10 +3888,10 @@
         <v>1.25</v>
       </c>
       <c r="Y24" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="Z24" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="AA24" t="n">
         <v>1.95</v>
@@ -3983,22 +3983,22 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H25" t="n">
         <v>3.8</v>
       </c>
       <c r="I25" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J25" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K25" t="n">
         <v>2.3</v>
       </c>
       <c r="L25" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M25" t="n">
         <v>1.04</v>
@@ -4029,22 +4029,22 @@
         <v>1.4</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Z25" t="n">
         <v>3.25</v>
       </c>
       <c r="AA25" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AB25" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AC25" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD25" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE25" t="n">
         <v>8.5</v>
@@ -4065,7 +4065,7 @@
         <v>7.5</v>
       </c>
       <c r="AK25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL25" t="n">
         <v>41</v>
@@ -4074,7 +4074,7 @@
         <v>13</v>
       </c>
       <c r="AN25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO25" t="n">
         <v>13</v>
@@ -4083,13 +4083,13 @@
         <v>41</v>
       </c>
       <c r="AQ25" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR25" t="n">
         <v>34</v>
       </c>
       <c r="AS25" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26">
@@ -4124,13 +4124,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H26" t="n">
         <v>3.9</v>
       </c>
       <c r="I26" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J26" t="n">
         <v>2.1</v>
@@ -4139,7 +4139,7 @@
         <v>2.2</v>
       </c>
       <c r="L26" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M26" t="n">
         <v>1.06</v>
@@ -4170,10 +4170,10 @@
         <v>1.25</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="Z26" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="AA26" t="n">
         <v>2.1</v>
@@ -4182,7 +4182,7 @@
         <v>1.67</v>
       </c>
       <c r="AC26" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AD26" t="n">
         <v>6.5</v>
@@ -4191,16 +4191,16 @@
         <v>8.5</v>
       </c>
       <c r="AF26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH26" t="n">
         <v>34</v>
       </c>
       <c r="AI26" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AJ26" t="n">
         <v>7.5</v>
@@ -4212,16 +4212,16 @@
         <v>67</v>
       </c>
       <c r="AM26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN26" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AO26" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP26" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AQ26" t="n">
         <v>51</v>
@@ -4265,19 +4265,19 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="H27" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I27" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J27" t="n">
         <v>1.83</v>
       </c>
       <c r="K27" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L27" t="n">
         <v>7</v>
@@ -4286,7 +4286,7 @@
         <v>1.03</v>
       </c>
       <c r="N27" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O27" t="n">
         <v>1.17</v>
@@ -4297,16 +4297,16 @@
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T27" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="U27" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V27" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W27" t="n">
         <v>2.38</v>
@@ -4315,7 +4315,7 @@
         <v>1.53</v>
       </c>
       <c r="Y27" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Z27" t="n">
         <v>3.5</v>
@@ -4330,13 +4330,13 @@
         <v>8.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF27" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AG27" t="n">
         <v>11</v>
@@ -4345,19 +4345,19 @@
         <v>23</v>
       </c>
       <c r="AI27" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ27" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK27" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL27" t="n">
         <v>51</v>
       </c>
       <c r="AM27" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN27" t="n">
         <v>41</v>
@@ -4410,46 +4410,46 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H28" t="n">
         <v>3.7</v>
       </c>
       <c r="I28" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="J28" t="n">
-        <v>2.18</v>
+        <v>2.27</v>
       </c>
       <c r="K28" t="n">
         <v>2.12</v>
       </c>
       <c r="L28" t="n">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P28" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="T28" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
       <c r="W28" t="n">
-        <v>2.87</v>
+        <v>2.92</v>
       </c>
       <c r="X28" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="Y28" t="n">
         <v>1.39</v>
@@ -4467,22 +4467,22 @@
         <v>6.7</v>
       </c>
       <c r="AD28" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AE28" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AF28" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG28" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI28" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AJ28" t="n">
         <v>7.2</v>
@@ -4494,22 +4494,22 @@
         <v>80</v>
       </c>
       <c r="AM28" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AN28" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AO28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP28" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AQ28" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AR28" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AS28" t="n">
         <v>700</v>
@@ -4550,27 +4550,27 @@
         <v>1.47</v>
       </c>
       <c r="H29" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="I29" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="J29" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="K29" t="n">
         <v>2.25</v>
       </c>
       <c r="L29" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P29" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr"/>
@@ -4578,7 +4578,7 @@
         <v>1.65</v>
       </c>
       <c r="T29" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr"/>
@@ -4612,37 +4612,37 @@
         <v>11.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI29" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AJ29" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AK29" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AL29" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AM29" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AN29" t="n">
         <v>37</v>
       </c>
       <c r="AO29" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AP29" t="n">
         <v>120</v>
       </c>
       <c r="AQ29" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AR29" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AS29" t="n">
         <v>600</v>
@@ -4708,10 +4708,10 @@
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr"/>
       <c r="S30" t="n">
-        <v>1.72</v>
+        <v>1.62</v>
       </c>
       <c r="T30" t="n">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="U30" t="n">
         <v>1.91</v>
@@ -4734,55 +4734,55 @@
         <v>2.1</v>
       </c>
       <c r="AC30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD30" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AE30" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AF30" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="AG30" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI30" t="n">
         <v>12.5</v>
       </c>
-      <c r="AH30" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>11.25</v>
-      </c>
       <c r="AJ30" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="AK30" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="AL30" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AM30" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AN30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO30" t="n">
-        <v>9.75</v>
+        <v>8.75</v>
       </c>
       <c r="AP30" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="AQ30" t="n">
-        <v>22</v>
+        <v>17.5</v>
       </c>
       <c r="AR30" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AS30" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31">
@@ -4817,13 +4817,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="H31" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I31" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="J31" t="n">
         <v>5.5</v>
@@ -4835,10 +4835,10 @@
         <v>1.95</v>
       </c>
       <c r="M31" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N31" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O31" t="n">
         <v>1.2</v>
@@ -4849,10 +4849,10 @@
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="T31" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="U31" t="n">
         <v>1.8</v>
@@ -4870,7 +4870,7 @@
         <v>1.3</v>
       </c>
       <c r="Z31" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AA31" t="n">
         <v>1.8</v>
@@ -4900,7 +4900,7 @@
         <v>13</v>
       </c>
       <c r="AJ31" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AK31" t="n">
         <v>17</v>
@@ -4912,7 +4912,7 @@
         <v>8</v>
       </c>
       <c r="AN31" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AO31" t="n">
         <v>8.5</v>
@@ -4962,13 +4962,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="H32" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I32" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="J32" t="n">
         <v>4</v>
@@ -4977,13 +4977,13 @@
         <v>2.2</v>
       </c>
       <c r="L32" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="M32" t="n">
         <v>1.02</v>
       </c>
       <c r="N32" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O32" t="n">
         <v>1.25</v>
@@ -4994,10 +4994,10 @@
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="T32" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
@@ -5008,7 +5008,7 @@
         <v>1.36</v>
       </c>
       <c r="Y32" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Z32" t="n">
         <v>3</v>
@@ -5023,7 +5023,7 @@
         <v>12</v>
       </c>
       <c r="AD32" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE32" t="n">
         <v>13</v>
@@ -5038,7 +5038,7 @@
         <v>34</v>
       </c>
       <c r="AI32" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ32" t="n">
         <v>7</v>
@@ -5103,28 +5103,28 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="H33" t="n">
         <v>3.3</v>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="J33" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K33" t="n">
         <v>2.1</v>
       </c>
       <c r="L33" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M33" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N33" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O33" t="n">
         <v>1.33</v>
@@ -5149,10 +5149,10 @@
         <v>1.25</v>
       </c>
       <c r="Y33" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="Z33" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="AA33" t="n">
         <v>1.83</v>
@@ -5164,7 +5164,7 @@
         <v>10</v>
       </c>
       <c r="AD33" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE33" t="n">
         <v>13</v>
@@ -5173,7 +5173,7 @@
         <v>41</v>
       </c>
       <c r="AG33" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AH33" t="n">
         <v>41</v>
@@ -5185,16 +5185,16 @@
         <v>6.5</v>
       </c>
       <c r="AK33" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL33" t="n">
         <v>51</v>
       </c>
       <c r="AM33" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AN33" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AO33" t="n">
         <v>9</v>
@@ -5290,7 +5290,7 @@
         <v>1.2</v>
       </c>
       <c r="Y34" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Z34" t="n">
         <v>2.5</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-04.xlsx
@@ -1134,19 +1134,19 @@
         <v>2.15</v>
       </c>
       <c r="H5" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="I5" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="J5" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="K5" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="L5" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="M5" t="n">
         <v>1.11</v>
@@ -1189,10 +1189,10 @@
         <v>1.6</v>
       </c>
       <c r="AC5" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AE5" t="n">
         <v>9.5</v>
@@ -1201,7 +1201,7 @@
         <v>21</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH5" t="n">
         <v>45</v>
@@ -1210,31 +1210,31 @@
         <v>6.2</v>
       </c>
       <c r="AJ5" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AK5" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AL5" t="n">
         <v>120</v>
       </c>
       <c r="AM5" t="n">
-        <v>7.5</v>
+        <v>7.9</v>
       </c>
       <c r="AN5" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AP5" t="n">
         <v>55</v>
       </c>
       <c r="AQ5" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AR5" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AS5" t="n">
         <v>900</v>
@@ -1272,22 +1272,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="H6" t="n">
         <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J6" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
         <v>1.95</v>
       </c>
       <c r="L6" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M6" t="n">
         <v>1.1</v>
@@ -1326,7 +1326,7 @@
         <v>1.17</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="Z6" t="n">
         <v>2.25</v>
@@ -1341,7 +1341,7 @@
         <v>6</v>
       </c>
       <c r="AD6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE6" t="n">
         <v>9.5</v>
@@ -1374,7 +1374,7 @@
         <v>17</v>
       </c>
       <c r="AO6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP6" t="n">
         <v>41</v>
@@ -1421,22 +1421,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H7" t="n">
         <v>3.2</v>
       </c>
       <c r="I7" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="J7" t="n">
         <v>4.33</v>
       </c>
       <c r="K7" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L7" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
         <v>1.08</v>
@@ -1475,10 +1475,10 @@
         <v>1.18</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Z7" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="AA7" t="n">
         <v>2</v>
@@ -1490,7 +1490,7 @@
         <v>8.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE7" t="n">
         <v>13</v>
@@ -1505,7 +1505,7 @@
         <v>41</v>
       </c>
       <c r="AI7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AJ7" t="n">
         <v>6</v>
@@ -1520,13 +1520,13 @@
         <v>6.5</v>
       </c>
       <c r="AN7" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AO7" t="n">
         <v>9.5</v>
       </c>
       <c r="AP7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ7" t="n">
         <v>21</v>
@@ -1535,7 +1535,7 @@
         <v>34</v>
       </c>
       <c r="AS7" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="8">
@@ -1570,13 +1570,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="H8" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="I8" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="J8" t="n">
         <v>3.8</v>
@@ -1585,13 +1585,13 @@
         <v>1.75</v>
       </c>
       <c r="L8" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="M8" t="n">
         <v>1.17</v>
       </c>
       <c r="N8" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="O8" t="n">
         <v>1.65</v>
@@ -1602,15 +1602,15 @@
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="T8" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="X8" t="n">
         <v>1.12</v>
@@ -1622,16 +1622,16 @@
         <v>2.05</v>
       </c>
       <c r="AA8" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="AB8" t="n">
         <v>1.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AD8" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AE8" t="n">
         <v>11.75</v>
@@ -1646,13 +1646,13 @@
         <v>60</v>
       </c>
       <c r="AI8" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="AJ8" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AK8" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AL8" t="n">
         <v>150</v>
@@ -1661,7 +1661,7 @@
         <v>6.1</v>
       </c>
       <c r="AN8" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AO8" t="n">
         <v>11.25</v>
@@ -1711,56 +1711,56 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>4.65</v>
+        <v>4.35</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="I9" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
-        <v>5.1</v>
+        <v>4.75</v>
       </c>
       <c r="K9" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="L9" t="n">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="M9" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N9" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="O9" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="P9" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="n">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="T9" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="n">
-        <v>4.35</v>
+        <v>4.55</v>
       </c>
       <c r="X9" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="Z9" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="AA9" t="n">
         <v>2.12</v>
@@ -1769,49 +1769,49 @@
         <v>1.65</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AD9" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AE9" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AG9" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AH9" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AI9" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="AJ9" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="AK9" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AL9" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AM9" t="n">
         <v>5.2</v>
       </c>
       <c r="AN9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AO9" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AP9" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AQ9" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AR9" t="n">
         <v>40</v>
@@ -1852,110 +1852,110 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H10" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="I10" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="L10" t="n">
         <v>6.2</v>
       </c>
-      <c r="J10" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="L10" t="n">
-        <v>6.5</v>
-      </c>
       <c r="M10" t="n">
-        <v>1.15</v>
+        <v>1.11</v>
       </c>
       <c r="N10" t="n">
-        <v>4.8</v>
+        <v>5.6</v>
       </c>
       <c r="O10" t="n">
-        <v>1.62</v>
+        <v>1.47</v>
       </c>
       <c r="P10" t="n">
-        <v>2.15</v>
+        <v>2.52</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
-        <v>2.82</v>
+        <v>2.35</v>
       </c>
       <c r="T10" t="n">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="n">
-        <v>5.3</v>
+        <v>4.1</v>
       </c>
       <c r="X10" t="n">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.65</v>
+        <v>1.47</v>
       </c>
       <c r="Z10" t="n">
-        <v>2.12</v>
+        <v>2.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AC10" t="n">
-        <v>4.2</v>
+        <v>5.1</v>
       </c>
       <c r="AD10" t="n">
-        <v>6.1</v>
+        <v>6.6</v>
       </c>
       <c r="AE10" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AF10" t="n">
         <v>12.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>20</v>
+        <v>15.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="AI10" t="n">
-        <v>4.8</v>
+        <v>5.6</v>
       </c>
       <c r="AJ10" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AL10" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="AM10" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AN10" t="n">
         <v>35</v>
       </c>
       <c r="AO10" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AP10" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AQ10" t="n">
+        <v>90</v>
+      </c>
+      <c r="AR10" t="n">
         <v>100</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>120</v>
       </c>
       <c r="AS10" t="n">
         <v>101</v>
@@ -2029,10 +2029,10 @@
         <v>2.03</v>
       </c>
       <c r="S11" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="T11" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
@@ -2138,16 +2138,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H12" t="n">
         <v>3.5</v>
       </c>
       <c r="I12" t="n">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="J12" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K12" t="n">
         <v>2.2</v>
@@ -2156,10 +2156,10 @@
         <v>5.5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O12" t="n">
         <v>1.33</v>
@@ -2173,15 +2173,15 @@
         <v>2.05</v>
       </c>
       <c r="T12" t="n">
-        <v>1.8</v>
+        <v>1.68</v>
       </c>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="X12" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Y12" t="n">
         <v>1.44</v>
@@ -2190,22 +2190,22 @@
         <v>2.63</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AB12" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AC12" t="n">
         <v>6.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE12" t="n">
         <v>8.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG12" t="n">
         <v>15</v>
@@ -2217,7 +2217,7 @@
         <v>9</v>
       </c>
       <c r="AJ12" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AK12" t="n">
         <v>17</v>
@@ -2229,19 +2229,19 @@
         <v>13</v>
       </c>
       <c r="AN12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP12" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AQ12" t="n">
         <v>41</v>
       </c>
       <c r="AR12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS12" t="n">
         <v>351</v>
@@ -2279,46 +2279,46 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="H13" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I13" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J13" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K13" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L13" t="n">
         <v>3.75</v>
       </c>
       <c r="M13" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N13" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O13" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P13" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R13" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="S13" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="T13" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
@@ -2329,16 +2329,16 @@
         <v>1.14</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Z13" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AA13" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AB13" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AC13" t="n">
         <v>6</v>
@@ -2350,16 +2350,16 @@
         <v>11</v>
       </c>
       <c r="AF13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH13" t="n">
         <v>41</v>
       </c>
       <c r="AI13" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AJ13" t="n">
         <v>6.5</v>
@@ -2371,10 +2371,10 @@
         <v>81</v>
       </c>
       <c r="AM13" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AN13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO13" t="n">
         <v>11</v>
@@ -2424,22 +2424,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="H14" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J14" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K14" t="n">
         <v>2</v>
       </c>
       <c r="L14" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
         <v>1.08</v>
@@ -2456,10 +2456,10 @@
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="T14" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
@@ -2476,22 +2476,22 @@
         <v>2.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AB14" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AC14" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE14" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG14" t="n">
         <v>21</v>
@@ -2509,22 +2509,22 @@
         <v>17</v>
       </c>
       <c r="AL14" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM14" t="n">
         <v>8</v>
       </c>
       <c r="AN14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP14" t="n">
         <v>34</v>
       </c>
       <c r="AQ14" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR14" t="n">
         <v>41</v>
@@ -2565,22 +2565,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="H15" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L15" t="n">
         <v>3.75</v>
-      </c>
-      <c r="I15" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L15" t="n">
-        <v>4</v>
       </c>
       <c r="M15" t="n">
         <v>1.03</v>
@@ -2589,36 +2589,36 @@
         <v>15</v>
       </c>
       <c r="O15" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P15" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="T15" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="U15" t="n">
-        <v>2.05</v>
+        <v>1.99</v>
       </c>
       <c r="V15" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="W15" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="X15" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Z15" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AA15" t="n">
         <v>1.57</v>
@@ -2630,16 +2630,16 @@
         <v>10</v>
       </c>
       <c r="AD15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE15" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH15" t="n">
         <v>21</v>
@@ -2648,7 +2648,7 @@
         <v>15</v>
       </c>
       <c r="AJ15" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AK15" t="n">
         <v>12</v>
@@ -2657,19 +2657,19 @@
         <v>41</v>
       </c>
       <c r="AM15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP15" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ15" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR15" t="n">
         <v>29</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="H16" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I16" t="n">
-        <v>1.91</v>
+        <v>2.01</v>
       </c>
       <c r="J16" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="K16" t="n">
         <v>2.1</v>
       </c>
       <c r="L16" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M16" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O16" t="n">
         <v>1.33</v>
@@ -2742,10 +2742,10 @@
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="T16" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
@@ -2768,10 +2768,10 @@
         <v>1.91</v>
       </c>
       <c r="AC16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD16" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AE16" t="n">
         <v>13</v>
@@ -2780,7 +2780,7 @@
         <v>41</v>
       </c>
       <c r="AG16" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AH16" t="n">
         <v>41</v>
@@ -2789,7 +2789,7 @@
         <v>9</v>
       </c>
       <c r="AJ16" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AK16" t="n">
         <v>15</v>
@@ -2801,13 +2801,13 @@
         <v>7</v>
       </c>
       <c r="AN16" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AO16" t="n">
         <v>9</v>
       </c>
       <c r="AP16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ16" t="n">
         <v>17</v>
@@ -2851,28 +2851,28 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="H17" t="n">
         <v>3.2</v>
       </c>
       <c r="I17" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="J17" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K17" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="L17" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M17" t="n">
         <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O17" t="n">
         <v>1.44</v>
@@ -2881,16 +2881,16 @@
         <v>2.63</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="R17" t="n">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="S17" t="n">
         <v>2.4</v>
       </c>
       <c r="T17" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
@@ -2913,19 +2913,19 @@
         <v>1.7</v>
       </c>
       <c r="AC17" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD17" t="n">
         <v>13</v>
       </c>
       <c r="AE17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG17" t="n">
         <v>29</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>26</v>
       </c>
       <c r="AH17" t="n">
         <v>41</v>
@@ -2946,7 +2946,7 @@
         <v>6.5</v>
       </c>
       <c r="AN17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO17" t="n">
         <v>10</v>
@@ -2955,7 +2955,7 @@
         <v>23</v>
       </c>
       <c r="AQ17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR17" t="n">
         <v>41</v>
@@ -2996,13 +2996,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="H18" t="n">
         <v>3.5</v>
       </c>
       <c r="I18" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J18" t="n">
         <v>2.4</v>
@@ -3028,10 +3028,10 @@
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="T18" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
@@ -3054,7 +3054,7 @@
         <v>1.95</v>
       </c>
       <c r="AC18" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD18" t="n">
         <v>8.5</v>
@@ -3072,10 +3072,10 @@
         <v>26</v>
       </c>
       <c r="AI18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ18" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AK18" t="n">
         <v>15</v>
@@ -3137,22 +3137,22 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="H19" t="n">
         <v>3.1</v>
       </c>
       <c r="I19" t="n">
-        <v>2.75</v>
+        <v>2.57</v>
       </c>
       <c r="J19" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K19" t="n">
         <v>2</v>
       </c>
       <c r="L19" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M19" t="n">
         <v>1.07</v>
@@ -3172,7 +3172,7 @@
         <v>2.25</v>
       </c>
       <c r="T19" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr"/>
@@ -3198,13 +3198,13 @@
         <v>7.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG19" t="n">
         <v>23</v>
@@ -3225,16 +3225,16 @@
         <v>51</v>
       </c>
       <c r="AM19" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AN19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP19" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ19" t="n">
         <v>23</v>
@@ -3278,7 +3278,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="H20" t="n">
         <v>3.5</v>
@@ -3310,18 +3310,18 @@
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="T20" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="X20" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Y20" t="n">
         <v>1.4</v>
@@ -3454,7 +3454,7 @@
         <v>2.15</v>
       </c>
       <c r="T21" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
@@ -3560,22 +3560,22 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="H22" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I22" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="J22" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="K22" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L22" t="n">
-        <v>2.4</v>
+        <v>2.63</v>
       </c>
       <c r="M22" t="n">
         <v>1.07</v>
@@ -3595,7 +3595,7 @@
         <v>2.2</v>
       </c>
       <c r="T22" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
@@ -3606,28 +3606,28 @@
         <v>1.22</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="AA22" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AB22" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AC22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD22" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE22" t="n">
         <v>15</v>
       </c>
       <c r="AF22" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG22" t="n">
         <v>41</v>
@@ -3636,37 +3636,37 @@
         <v>41</v>
       </c>
       <c r="AI22" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AJ22" t="n">
         <v>6.5</v>
       </c>
       <c r="AK22" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL22" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM22" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AN22" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AO22" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP22" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AQ22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AR22" t="n">
         <v>34</v>
       </c>
       <c r="AS22" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
     </row>
     <row r="23">
@@ -3701,68 +3701,68 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H23" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I23" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="J23" t="n">
         <v>2.88</v>
       </c>
       <c r="K23" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L23" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M23" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N23" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O23" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P23" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="n">
-        <v>2.05</v>
+        <v>1.92</v>
       </c>
       <c r="T23" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="X23" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="Z23" t="n">
-        <v>2.62</v>
+        <v>2.75</v>
       </c>
       <c r="AA23" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AB23" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="AC23" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE23" t="n">
         <v>9</v>
@@ -3771,22 +3771,22 @@
         <v>21</v>
       </c>
       <c r="AG23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH23" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ23" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AK23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL23" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM23" t="n">
         <v>10</v>
@@ -3801,13 +3801,13 @@
         <v>34</v>
       </c>
       <c r="AQ23" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AR23" t="n">
         <v>34</v>
       </c>
       <c r="AS23" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24">
@@ -3877,7 +3877,7 @@
         <v>2.15</v>
       </c>
       <c r="T24" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
@@ -3888,10 +3888,10 @@
         <v>1.25</v>
       </c>
       <c r="Y24" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Z24" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="AA24" t="n">
         <v>1.95</v>
@@ -3983,22 +3983,22 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H25" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I25" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="J25" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K25" t="n">
         <v>2.3</v>
       </c>
       <c r="L25" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M25" t="n">
         <v>1.04</v>
@@ -4007,29 +4007,29 @@
         <v>13</v>
       </c>
       <c r="O25" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P25" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="T25" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="X25" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Z25" t="n">
         <v>3.25</v>
@@ -4077,7 +4077,7 @@
         <v>23</v>
       </c>
       <c r="AO25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP25" t="n">
         <v>41</v>
@@ -4124,13 +4124,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H26" t="n">
         <v>3.9</v>
       </c>
       <c r="I26" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J26" t="n">
         <v>2.1</v>
@@ -4142,10 +4142,10 @@
         <v>6.5</v>
       </c>
       <c r="M26" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O26" t="n">
         <v>1.33</v>
@@ -4159,7 +4159,7 @@
         <v>2.05</v>
       </c>
       <c r="T26" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
@@ -4170,10 +4170,10 @@
         <v>1.25</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Z26" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="AA26" t="n">
         <v>2.1</v>
@@ -4191,7 +4191,7 @@
         <v>8.5</v>
       </c>
       <c r="AF26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG26" t="n">
         <v>13</v>
@@ -4203,22 +4203,22 @@
         <v>9</v>
       </c>
       <c r="AJ26" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AK26" t="n">
         <v>21</v>
       </c>
       <c r="AL26" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AM26" t="n">
         <v>13</v>
       </c>
       <c r="AN26" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP26" t="n">
         <v>67</v>
@@ -4315,7 +4315,7 @@
         <v>1.53</v>
       </c>
       <c r="Y27" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Z27" t="n">
         <v>3.5</v>
@@ -4464,7 +4464,7 @@
         <v>1.8</v>
       </c>
       <c r="AC28" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AD28" t="n">
         <v>7.6</v>
@@ -4479,13 +4479,13 @@
         <v>13.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI28" t="n">
         <v>10.25</v>
       </c>
       <c r="AJ28" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AK28" t="n">
         <v>16.5</v>
@@ -4512,7 +4512,7 @@
         <v>50</v>
       </c>
       <c r="AS28" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
     </row>
     <row r="29">
@@ -4553,13 +4553,13 @@
         <v>4.15</v>
       </c>
       <c r="I29" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="J29" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="K29" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="L29" t="n">
         <v>5.6</v>
@@ -4570,34 +4570,34 @@
         <v>1.21</v>
       </c>
       <c r="P29" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="T29" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr"/>
       <c r="W29" t="n">
-        <v>2.52</v>
+        <v>2.47</v>
       </c>
       <c r="X29" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="AB29" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="AC29" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AD29" t="n">
         <v>7.2</v>
@@ -4612,10 +4612,10 @@
         <v>11.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI29" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AJ29" t="n">
         <v>8.25</v>
@@ -4624,13 +4624,13 @@
         <v>17</v>
       </c>
       <c r="AL29" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AM29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN29" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AO29" t="n">
         <v>18.5</v>
@@ -4645,7 +4645,7 @@
         <v>55</v>
       </c>
       <c r="AS29" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
     </row>
     <row r="30">
@@ -4708,10 +4708,10 @@
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr"/>
       <c r="S30" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="T30" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U30" t="n">
         <v>1.91</v>
@@ -4734,22 +4734,22 @@
         <v>2.1</v>
       </c>
       <c r="AC30" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AD30" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="AE30" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AF30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH30" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI30" t="n">
         <v>12.5</v>
@@ -4764,19 +4764,19 @@
         <v>35</v>
       </c>
       <c r="AM30" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="AN30" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AO30" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AP30" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AQ30" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AR30" t="n">
         <v>20</v>
@@ -4817,42 +4817,42 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="H31" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="I31" t="n">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="J31" t="n">
         <v>5.5</v>
       </c>
       <c r="K31" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="L31" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="M31" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N31" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O31" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="P31" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="n">
-        <v>1.67</v>
+        <v>1.9</v>
       </c>
       <c r="T31" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="U31" t="n">
         <v>1.8</v>
@@ -4861,34 +4861,34 @@
         <v>2.05</v>
       </c>
       <c r="W31" t="n">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="X31" t="n">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="Y31" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="Z31" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="AA31" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AB31" t="n">
         <v>1.8</v>
       </c>
-      <c r="AB31" t="n">
-        <v>1.91</v>
-      </c>
       <c r="AC31" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AD31" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE31" t="n">
         <v>19</v>
       </c>
       <c r="AF31" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG31" t="n">
         <v>41</v>
@@ -4897,10 +4897,10 @@
         <v>41</v>
       </c>
       <c r="AI31" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AJ31" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AK31" t="n">
         <v>17</v>
@@ -4909,25 +4909,25 @@
         <v>51</v>
       </c>
       <c r="AM31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AN31" t="n">
         <v>7.5</v>
       </c>
       <c r="AO31" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP31" t="n">
         <v>11</v>
       </c>
       <c r="AQ31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR31" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AS31" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
     </row>
     <row r="32">
@@ -4962,110 +4962,110 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="H32" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="I32" t="n">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="J32" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K32" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L32" t="n">
-        <v>2.5</v>
+        <v>2.88</v>
       </c>
       <c r="M32" t="n">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="N32" t="n">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="O32" t="n">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="P32" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="n">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="T32" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
       <c r="W32" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="X32" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="Y32" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="Z32" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AA32" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="AB32" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AC32" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE32" t="n">
         <v>12</v>
       </c>
-      <c r="AD32" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>13</v>
-      </c>
       <c r="AF32" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG32" t="n">
         <v>29</v>
       </c>
       <c r="AH32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>7</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR32" t="n">
         <v>34</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>7</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>8</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP32" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ32" t="n">
-        <v>15</v>
-      </c>
-      <c r="AR32" t="n">
-        <v>26</v>
       </c>
       <c r="AS32" t="n">
         <v>151</v>
@@ -5103,28 +5103,28 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="H33" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I33" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="K33" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L33" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M33" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N33" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O33" t="n">
         <v>1.33</v>
@@ -5135,10 +5135,10 @@
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr"/>
       <c r="S33" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="T33" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
@@ -5149,10 +5149,10 @@
         <v>1.25</v>
       </c>
       <c r="Y33" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Z33" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="AA33" t="n">
         <v>1.83</v>
@@ -5161,10 +5161,10 @@
         <v>1.83</v>
       </c>
       <c r="AC33" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD33" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE33" t="n">
         <v>13</v>
@@ -5173,7 +5173,7 @@
         <v>41</v>
       </c>
       <c r="AG33" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AH33" t="n">
         <v>41</v>
@@ -5191,16 +5191,16 @@
         <v>51</v>
       </c>
       <c r="AM33" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AN33" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AO33" t="n">
         <v>9</v>
       </c>
       <c r="AP33" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ33" t="n">
         <v>17</v>
@@ -5244,10 +5244,10 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H34" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I34" t="n">
         <v>3.5</v>
@@ -5262,24 +5262,28 @@
         <v>4.5</v>
       </c>
       <c r="M34" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N34" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="O34" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P34" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
+        <v>2.63</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R34" t="n">
+        <v>2.05</v>
+      </c>
       <c r="S34" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="T34" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
@@ -5290,16 +5294,16 @@
         <v>1.2</v>
       </c>
       <c r="Y34" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="Z34" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AA34" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AB34" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AC34" t="n">
         <v>6</v>
@@ -5308,7 +5312,7 @@
         <v>8.5</v>
       </c>
       <c r="AE34" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF34" t="n">
         <v>17</v>
@@ -5320,7 +5324,7 @@
         <v>34</v>
       </c>
       <c r="AI34" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AJ34" t="n">
         <v>6.5</v>
@@ -5332,7 +5336,7 @@
         <v>67</v>
       </c>
       <c r="AM34" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AN34" t="n">
         <v>17</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-04.xlsx
@@ -1011,7 +1011,7 @@
         <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="O4" t="n">
         <v>1.52</v>
@@ -1131,22 +1131,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="H5" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="I5" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="J5" t="n">
         <v>2.95</v>
       </c>
       <c r="K5" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="L5" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="M5" t="n">
         <v>1.11</v>
@@ -1183,16 +1183,16 @@
         <v>2.1</v>
       </c>
       <c r="AA5" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="AB5" t="n">
         <v>1.6</v>
       </c>
       <c r="AC5" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AE5" t="n">
         <v>9.5</v>
@@ -1201,13 +1201,13 @@
         <v>21</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH5" t="n">
         <v>45</v>
       </c>
       <c r="AI5" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AJ5" t="n">
         <v>5.8</v>
@@ -1234,7 +1234,7 @@
         <v>40</v>
       </c>
       <c r="AR5" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AS5" t="n">
         <v>900</v>
@@ -1272,16 +1272,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="H6" t="n">
         <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K6" t="n">
         <v>1.95</v>
@@ -1341,13 +1341,13 @@
         <v>6</v>
       </c>
       <c r="AD6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG6" t="n">
         <v>21</v>
@@ -1368,10 +1368,10 @@
         <v>67</v>
       </c>
       <c r="AM6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AN6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO6" t="n">
         <v>13</v>
@@ -1570,39 +1570,39 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="H8" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="I8" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="J8" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="K8" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="L8" t="n">
         <v>3.65</v>
       </c>
       <c r="M8" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="N8" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="O8" t="n">
         <v>1.65</v>
       </c>
       <c r="P8" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="T8" t="n">
         <v>1.36</v>
@@ -1616,13 +1616,13 @@
         <v>1.12</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="Z8" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AA8" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="AB8" t="n">
         <v>1.6</v>
@@ -1631,22 +1631,22 @@
         <v>6.1</v>
       </c>
       <c r="AD8" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE8" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AF8" t="n">
         <v>40</v>
       </c>
       <c r="AG8" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AH8" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AI8" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="AJ8" t="n">
         <v>5.2</v>
@@ -1655,10 +1655,10 @@
         <v>18.5</v>
       </c>
       <c r="AL8" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AM8" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AN8" t="n">
         <v>13</v>
@@ -1667,10 +1667,10 @@
         <v>11.25</v>
       </c>
       <c r="AP8" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AQ8" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AR8" t="n">
         <v>55</v>
@@ -1711,19 +1711,19 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>4.35</v>
+        <v>4.15</v>
       </c>
       <c r="H9" t="n">
-        <v>2.85</v>
+        <v>2.95</v>
       </c>
       <c r="I9" t="n">
         <v>2</v>
       </c>
       <c r="J9" t="n">
-        <v>4.75</v>
+        <v>4.6</v>
       </c>
       <c r="K9" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L9" t="n">
         <v>2.65</v>
@@ -1732,29 +1732,29 @@
         <v>1.12</v>
       </c>
       <c r="N9" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="O9" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="P9" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="n">
-        <v>2.52</v>
+        <v>2.42</v>
       </c>
       <c r="T9" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="n">
-        <v>4.55</v>
+        <v>4.4</v>
       </c>
       <c r="X9" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="Y9" t="n">
         <v>1.52</v>
@@ -1763,22 +1763,22 @@
         <v>2.37</v>
       </c>
       <c r="AA9" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="AB9" t="n">
         <v>1.65</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AD9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE9" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AF9" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AG9" t="n">
         <v>50</v>
@@ -1787,10 +1787,10 @@
         <v>60</v>
       </c>
       <c r="AI9" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AJ9" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AK9" t="n">
         <v>18</v>
@@ -1799,10 +1799,10 @@
         <v>110</v>
       </c>
       <c r="AM9" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="AN9" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AO9" t="n">
         <v>9</v>
@@ -1811,7 +1811,7 @@
         <v>18</v>
       </c>
       <c r="AQ9" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AR9" t="n">
         <v>40</v>
@@ -1852,65 +1852,65 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H10" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I10" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="J10" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="K10" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="L10" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="M10" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N10" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="O10" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P10" t="n">
-        <v>2.52</v>
+        <v>2.42</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
-        <v>2.35</v>
+        <v>2.42</v>
       </c>
       <c r="T10" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="n">
-        <v>4.1</v>
+        <v>4.35</v>
       </c>
       <c r="X10" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="Z10" t="n">
-        <v>2.5</v>
+        <v>2.32</v>
       </c>
       <c r="AA10" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="AC10" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="AD10" t="n">
         <v>6.6</v>
@@ -1922,40 +1922,40 @@
         <v>12.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AH10" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AI10" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="AJ10" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AK10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL10" t="n">
         <v>150</v>
       </c>
       <c r="AM10" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AN10" t="n">
         <v>35</v>
       </c>
       <c r="AO10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP10" t="n">
         <v>150</v>
       </c>
       <c r="AQ10" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AR10" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AS10" t="n">
         <v>101</v>
@@ -2011,10 +2011,10 @@
         <v>2.63</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O11" t="n">
         <v>1.5</v>
@@ -2023,24 +2023,24 @@
         <v>2.63</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="R11" t="n">
-        <v>2.03</v>
+        <v>1.93</v>
       </c>
       <c r="S11" t="n">
-        <v>2.32</v>
+        <v>2.63</v>
       </c>
       <c r="T11" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="X11" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="Y11" t="n">
         <v>1.53</v>
@@ -2170,10 +2170,10 @@
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T12" t="n">
-        <v>1.68</v>
+        <v>1.8</v>
       </c>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
@@ -2279,13 +2279,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H13" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I13" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J13" t="n">
         <v>3.75</v>
@@ -2315,10 +2315,10 @@
         <v>1.78</v>
       </c>
       <c r="S13" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="T13" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
@@ -2427,13 +2427,13 @@
         <v>2.25</v>
       </c>
       <c r="H14" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I14" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="J14" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K14" t="n">
         <v>2</v>
@@ -2456,10 +2456,10 @@
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="T14" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
@@ -2597,7 +2597,7 @@
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="T15" t="n">
         <v>2.15</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="H16" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I16" t="n">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="J16" t="n">
         <v>4.33</v>
@@ -2725,13 +2725,13 @@
         <v>2.1</v>
       </c>
       <c r="L16" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M16" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O16" t="n">
         <v>1.33</v>
@@ -2742,10 +2742,10 @@
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="T16" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
@@ -2768,10 +2768,10 @@
         <v>1.91</v>
       </c>
       <c r="AC16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE16" t="n">
         <v>13</v>
@@ -2780,13 +2780,13 @@
         <v>41</v>
       </c>
       <c r="AG16" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AH16" t="n">
         <v>41</v>
       </c>
       <c r="AI16" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AJ16" t="n">
         <v>6</v>
@@ -2801,13 +2801,13 @@
         <v>7</v>
       </c>
       <c r="AN16" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AO16" t="n">
         <v>9</v>
       </c>
       <c r="AP16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ16" t="n">
         <v>17</v>
@@ -2857,37 +2857,37 @@
         <v>3.2</v>
       </c>
       <c r="I17" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="J17" t="n">
         <v>4</v>
       </c>
       <c r="K17" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="L17" t="n">
         <v>3.2</v>
       </c>
       <c r="M17" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O17" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P17" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="R17" t="n">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="S17" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="T17" t="n">
         <v>1.5</v>
@@ -2895,10 +2895,10 @@
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="X17" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="Y17" t="n">
         <v>1.53</v>
@@ -2996,22 +2996,22 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="H18" t="n">
         <v>3.5</v>
       </c>
       <c r="I18" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J18" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K18" t="n">
         <v>2.2</v>
       </c>
       <c r="L18" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M18" t="n">
         <v>1.05</v>
@@ -3057,13 +3057,13 @@
         <v>7</v>
       </c>
       <c r="AD18" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE18" t="n">
         <v>8.5</v>
       </c>
       <c r="AF18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG18" t="n">
         <v>15</v>
@@ -3075,7 +3075,7 @@
         <v>10</v>
       </c>
       <c r="AJ18" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AK18" t="n">
         <v>15</v>
@@ -3096,7 +3096,7 @@
         <v>51</v>
       </c>
       <c r="AQ18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR18" t="n">
         <v>41</v>
@@ -3137,13 +3137,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="H19" t="n">
         <v>3.1</v>
       </c>
       <c r="I19" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="J19" t="n">
         <v>3.5</v>
@@ -3169,10 +3169,10 @@
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T19" t="n">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr"/>
@@ -3278,65 +3278,65 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.66</v>
+        <v>1.75</v>
       </c>
       <c r="H20" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I20" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J20" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="K20" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L20" t="n">
         <v>5</v>
       </c>
       <c r="M20" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O20" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="P20" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T20" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="X20" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Z20" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AA20" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AB20" t="n">
         <v>1.8</v>
       </c>
-      <c r="AB20" t="n">
-        <v>1.95</v>
-      </c>
       <c r="AC20" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD20" t="n">
         <v>8</v>
@@ -3348,16 +3348,16 @@
         <v>13</v>
       </c>
       <c r="AG20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH20" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ20" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AK20" t="n">
         <v>15</v>
@@ -3366,10 +3366,10 @@
         <v>51</v>
       </c>
       <c r="AM20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN20" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO20" t="n">
         <v>17</v>
@@ -3384,7 +3384,7 @@
         <v>41</v>
       </c>
       <c r="AS20" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
     </row>
     <row r="21">
@@ -3422,65 +3422,69 @@
         <v>2.2</v>
       </c>
       <c r="H21" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I21" t="n">
         <v>3.3</v>
-      </c>
-      <c r="I21" t="n">
-        <v>3.2</v>
       </c>
       <c r="J21" t="n">
         <v>3</v>
       </c>
       <c r="K21" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L21" t="n">
         <v>4</v>
       </c>
       <c r="M21" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O21" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="P21" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
+        <v>2.63</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2.05</v>
+      </c>
       <c r="S21" t="n">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="T21" t="n">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
       <c r="W21" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="X21" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="Z21" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="AA21" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AB21" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AC21" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE21" t="n">
         <v>9.5</v>
@@ -3489,25 +3493,25 @@
         <v>21</v>
       </c>
       <c r="AG21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH21" t="n">
         <v>34</v>
       </c>
       <c r="AI21" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AJ21" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AK21" t="n">
         <v>17</v>
       </c>
       <c r="AL21" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM21" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AN21" t="n">
         <v>15</v>
@@ -3516,7 +3520,7 @@
         <v>12</v>
       </c>
       <c r="AP21" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ21" t="n">
         <v>29</v>
@@ -3525,7 +3529,7 @@
         <v>41</v>
       </c>
       <c r="AS21" t="n">
-        <v>351</v>
+        <v>451</v>
       </c>
     </row>
     <row r="22">
@@ -3560,50 +3564,50 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="H22" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I22" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="J22" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="K22" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L22" t="n">
-        <v>2.63</v>
+        <v>2.88</v>
       </c>
       <c r="M22" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="O22" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P22" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="T22" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="X22" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="Y22" t="n">
         <v>1.5</v>
@@ -3612,34 +3616,34 @@
         <v>2.5</v>
       </c>
       <c r="AA22" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AB22" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AC22" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF22" t="n">
         <v>41</v>
       </c>
       <c r="AG22" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AH22" t="n">
         <v>41</v>
       </c>
       <c r="AI22" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AJ22" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AK22" t="n">
         <v>17</v>
@@ -3651,16 +3655,16 @@
         <v>6.5</v>
       </c>
       <c r="AN22" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AO22" t="n">
         <v>9</v>
       </c>
       <c r="AP22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AR22" t="n">
         <v>34</v>
@@ -3733,10 +3737,10 @@
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="T23" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
@@ -3842,13 +3846,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H24" t="n">
         <v>3.25</v>
       </c>
       <c r="I24" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="J24" t="n">
         <v>2.75</v>
@@ -3857,13 +3861,13 @@
         <v>2.05</v>
       </c>
       <c r="L24" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M24" t="n">
         <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O24" t="n">
         <v>1.36</v>
@@ -3877,15 +3881,15 @@
         <v>2.15</v>
       </c>
       <c r="T24" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="X24" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Y24" t="n">
         <v>1.44</v>
@@ -3903,7 +3907,7 @@
         <v>6.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE24" t="n">
         <v>9</v>
@@ -3921,10 +3925,10 @@
         <v>8.5</v>
       </c>
       <c r="AJ24" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AK24" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL24" t="n">
         <v>51</v>
@@ -3986,16 +3990,16 @@
         <v>1.73</v>
       </c>
       <c r="H25" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I25" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J25" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K25" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L25" t="n">
         <v>4.75</v>
@@ -4015,10 +4019,10 @@
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="n">
-        <v>1.72</v>
+        <v>1.85</v>
       </c>
       <c r="T25" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
@@ -4029,28 +4033,28 @@
         <v>1.36</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Z25" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AA25" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AB25" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AC25" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE25" t="n">
         <v>8.5</v>
       </c>
       <c r="AF25" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG25" t="n">
         <v>13</v>
@@ -4059,7 +4063,7 @@
         <v>23</v>
       </c>
       <c r="AI25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ25" t="n">
         <v>7.5</v>
@@ -4068,7 +4072,7 @@
         <v>15</v>
       </c>
       <c r="AL25" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM25" t="n">
         <v>13</v>
@@ -4080,16 +4084,16 @@
         <v>15</v>
       </c>
       <c r="AP25" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AQ25" t="n">
         <v>34</v>
       </c>
       <c r="AR25" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AS25" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26">
@@ -4124,13 +4128,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H26" t="n">
         <v>3.9</v>
       </c>
       <c r="I26" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J26" t="n">
         <v>2.1</v>
@@ -4142,10 +4146,10 @@
         <v>6.5</v>
       </c>
       <c r="M26" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O26" t="n">
         <v>1.33</v>
@@ -4156,10 +4160,10 @@
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="T26" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
@@ -4191,7 +4195,7 @@
         <v>8.5</v>
       </c>
       <c r="AF26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG26" t="n">
         <v>13</v>
@@ -4203,22 +4207,22 @@
         <v>9</v>
       </c>
       <c r="AJ26" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AK26" t="n">
         <v>21</v>
       </c>
       <c r="AL26" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AM26" t="n">
         <v>13</v>
       </c>
       <c r="AN26" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AO26" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP26" t="n">
         <v>67</v>
@@ -4265,19 +4269,19 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="H27" t="n">
         <v>4.75</v>
       </c>
       <c r="I27" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J27" t="n">
         <v>1.83</v>
       </c>
       <c r="K27" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L27" t="n">
         <v>7</v>
@@ -4327,7 +4331,7 @@
         <v>1.83</v>
       </c>
       <c r="AC27" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD27" t="n">
         <v>7.5</v>
@@ -4363,7 +4367,7 @@
         <v>41</v>
       </c>
       <c r="AO27" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP27" t="n">
         <v>81</v>
@@ -4372,7 +4376,7 @@
         <v>51</v>
       </c>
       <c r="AR27" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS27" t="n">
         <v>251</v>
@@ -4410,19 +4414,19 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H28" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I28" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J28" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="K28" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="L28" t="n">
         <v>4.8</v>
@@ -4438,7 +4442,7 @@
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="T28" t="n">
         <v>1.78</v>
@@ -4446,19 +4450,19 @@
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
       <c r="W28" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="X28" t="n">
         <v>1.3</v>
       </c>
       <c r="Y28" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="Z28" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="AA28" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="AB28" t="n">
         <v>1.8</v>
@@ -4467,25 +4471,25 @@
         <v>6.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AE28" t="n">
         <v>8.25</v>
       </c>
       <c r="AF28" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AG28" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH28" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI28" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AJ28" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AK28" t="n">
         <v>16.5</v>
@@ -4503,7 +4507,7 @@
         <v>15</v>
       </c>
       <c r="AP28" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AQ28" t="n">
         <v>45</v>
@@ -4512,7 +4516,7 @@
         <v>50</v>
       </c>
       <c r="AS28" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
     </row>
     <row r="29">
@@ -4547,105 +4551,105 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="H29" t="n">
         <v>4.15</v>
       </c>
       <c r="I29" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="J29" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="K29" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="L29" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P29" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="T29" t="n">
-        <v>2.02</v>
+        <v>2.15</v>
       </c>
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr"/>
       <c r="W29" t="n">
-        <v>2.47</v>
+        <v>2.32</v>
       </c>
       <c r="X29" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AB29" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AC29" t="n">
-        <v>7.4</v>
+        <v>8.25</v>
       </c>
       <c r="AD29" t="n">
-        <v>7.2</v>
+        <v>7.7</v>
       </c>
       <c r="AE29" t="n">
         <v>8</v>
       </c>
       <c r="AF29" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AG29" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH29" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI29" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AJ29" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AK29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL29" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AM29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AN29" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AO29" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AP29" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AQ29" t="n">
         <v>60</v>
       </c>
       <c r="AR29" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AS29" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
     </row>
     <row r="30">
@@ -4680,22 +4684,22 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="H30" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I30" t="n">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="J30" t="n">
-        <v>2.52</v>
+        <v>2.8</v>
       </c>
       <c r="K30" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="L30" t="n">
-        <v>3.7</v>
+        <v>3.05</v>
       </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
@@ -4817,13 +4821,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="H31" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I31" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="J31" t="n">
         <v>5.5</v>
@@ -4841,18 +4845,18 @@
         <v>8.5</v>
       </c>
       <c r="O31" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P31" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="T31" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="U31" t="n">
         <v>1.8</v>
@@ -4867,10 +4871,10 @@
         <v>1.33</v>
       </c>
       <c r="Y31" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Z31" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AA31" t="n">
         <v>1.91</v>
@@ -4897,13 +4901,13 @@
         <v>41</v>
       </c>
       <c r="AI31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ31" t="n">
         <v>7.5</v>
       </c>
       <c r="AK31" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL31" t="n">
         <v>51</v>
@@ -4915,7 +4919,7 @@
         <v>7.5</v>
       </c>
       <c r="AO31" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP31" t="n">
         <v>11</v>
@@ -4924,10 +4928,10 @@
         <v>13</v>
       </c>
       <c r="AR31" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AS31" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="32">
@@ -5002,10 +5006,10 @@
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
       <c r="W32" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="X32" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Y32" t="n">
         <v>1.44</v>
@@ -5106,16 +5110,16 @@
         <v>3.4</v>
       </c>
       <c r="H33" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I33" t="n">
         <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K33" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L33" t="n">
         <v>2.75</v>
@@ -5127,44 +5131,44 @@
         <v>10</v>
       </c>
       <c r="O33" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P33" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr"/>
       <c r="S33" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T33" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
       <c r="W33" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="X33" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Y33" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Z33" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AA33" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AB33" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AC33" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD33" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE33" t="n">
         <v>13</v>
@@ -5176,22 +5180,22 @@
         <v>29</v>
       </c>
       <c r="AH33" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI33" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ33" t="n">
         <v>6.5</v>
       </c>
       <c r="AK33" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL33" t="n">
         <v>51</v>
       </c>
       <c r="AM33" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AN33" t="n">
         <v>9.5</v>
@@ -5200,7 +5204,7 @@
         <v>9</v>
       </c>
       <c r="AP33" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ33" t="n">
         <v>17</v>
@@ -5209,7 +5213,7 @@
         <v>29</v>
       </c>
       <c r="AS33" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
     </row>
     <row r="34">
@@ -5244,28 +5248,28 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="H34" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I34" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="J34" t="n">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="K34" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L34" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M34" t="n">
         <v>1.08</v>
       </c>
       <c r="N34" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O34" t="n">
         <v>1.44</v>
@@ -5274,10 +5278,10 @@
         <v>2.63</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="R34" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="S34" t="n">
         <v>2.35</v>
@@ -5288,10 +5292,10 @@
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
       <c r="W34" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="X34" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="Y34" t="n">
         <v>1.53</v>
@@ -5300,25 +5304,25 @@
         <v>2.38</v>
       </c>
       <c r="AA34" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AB34" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AC34" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AD34" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AE34" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF34" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AG34" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH34" t="n">
         <v>34</v>
@@ -5327,28 +5331,28 @@
         <v>7.5</v>
       </c>
       <c r="AJ34" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AK34" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL34" t="n">
         <v>67</v>
       </c>
       <c r="AM34" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AN34" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO34" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP34" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ34" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR34" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-04.xlsx
@@ -990,42 +990,42 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="H4" t="n">
-        <v>2.95</v>
+        <v>2.85</v>
       </c>
       <c r="I4" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="J4" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="K4" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="L4" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M4" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="N4" t="n">
-        <v>5.4</v>
+        <v>4.35</v>
       </c>
       <c r="O4" t="n">
-        <v>1.52</v>
+        <v>1.62</v>
       </c>
       <c r="P4" t="n">
-        <v>2.22</v>
+        <v>2.05</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="n">
-        <v>2.47</v>
+        <v>2.75</v>
       </c>
       <c r="T4" t="n">
-        <v>1.42</v>
+        <v>1.34</v>
       </c>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
@@ -1036,64 +1036,64 @@
         <v>1.14</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.12</v>
+        <v>2.27</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="AD4" t="n">
         <v>16</v>
       </c>
       <c r="AE4" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AF4" t="n">
         <v>50</v>
       </c>
       <c r="AG4" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AH4" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AI4" t="n">
-        <v>6.2</v>
+        <v>4.65</v>
       </c>
       <c r="AJ4" t="n">
         <v>6</v>
       </c>
       <c r="AK4" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AL4" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AM4" t="n">
-        <v>5.6</v>
+        <v>5.1</v>
       </c>
       <c r="AN4" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AO4" t="n">
-        <v>9.75</v>
+        <v>10.5</v>
       </c>
       <c r="AP4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ4" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AR4" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AS4" t="n">
         <v>600</v>
@@ -1131,13 +1131,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="H5" t="n">
         <v>2.85</v>
       </c>
       <c r="I5" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="J5" t="n">
         <v>2.95</v>
@@ -1152,7 +1152,7 @@
         <v>1.11</v>
       </c>
       <c r="N5" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="O5" t="n">
         <v>1.5</v>
@@ -1201,7 +1201,7 @@
         <v>21</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH5" t="n">
         <v>45</v>
@@ -1210,19 +1210,19 @@
         <v>6.1</v>
       </c>
       <c r="AJ5" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AK5" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AL5" t="n">
         <v>120</v>
       </c>
       <c r="AM5" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AN5" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AO5" t="n">
         <v>13</v>
@@ -1296,16 +1296,16 @@
         <v>7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P6" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R6" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S6" t="n">
         <v>2.5</v>
@@ -1314,7 +1314,7 @@
         <v>1.5</v>
       </c>
       <c r="U6" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="V6" t="n">
         <v>1.24</v>
@@ -1335,7 +1335,7 @@
         <v>2.1</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AC6" t="n">
         <v>6</v>
@@ -1421,28 +1421,28 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="H7" t="n">
         <v>3.2</v>
       </c>
       <c r="I7" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="J7" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K7" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L7" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O7" t="n">
         <v>1.44</v>
@@ -1481,16 +1481,16 @@
         <v>2.38</v>
       </c>
       <c r="AA7" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE7" t="n">
         <v>13</v>
@@ -1508,34 +1508,34 @@
         <v>7</v>
       </c>
       <c r="AJ7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL7" t="n">
         <v>67</v>
       </c>
       <c r="AM7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AN7" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AO7" t="n">
         <v>9.5</v>
       </c>
       <c r="AP7" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AQ7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR7" t="n">
         <v>34</v>
       </c>
       <c r="AS7" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
@@ -1579,41 +1579,41 @@
         <v>2.9</v>
       </c>
       <c r="J8" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K8" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="L8" t="n">
         <v>3.65</v>
       </c>
       <c r="M8" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="N8" t="n">
-        <v>4.55</v>
+        <v>4.45</v>
       </c>
       <c r="O8" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="P8" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>2.87</v>
+        <v>2.95</v>
       </c>
       <c r="T8" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="X8" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="Y8" t="n">
         <v>1.65</v>
@@ -1622,58 +1622,58 @@
         <v>2.1</v>
       </c>
       <c r="AA8" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AB8" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="AC8" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AD8" t="n">
         <v>13</v>
       </c>
       <c r="AE8" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AF8" t="n">
         <v>40</v>
       </c>
       <c r="AG8" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH8" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AI8" t="n">
-        <v>4.55</v>
+        <v>4.45</v>
       </c>
       <c r="AJ8" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AK8" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AL8" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AM8" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AN8" t="n">
         <v>13</v>
       </c>
       <c r="AO8" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AP8" t="n">
         <v>40</v>
       </c>
       <c r="AQ8" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AR8" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AS8" t="n">
         <v>101</v>
@@ -1711,42 +1711,42 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>4.15</v>
+        <v>4.4</v>
       </c>
       <c r="H9" t="n">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="J9" t="n">
-        <v>4.6</v>
+        <v>4.85</v>
       </c>
       <c r="K9" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L9" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="M9" t="n">
         <v>1.12</v>
       </c>
       <c r="N9" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="O9" t="n">
         <v>1.5</v>
       </c>
       <c r="P9" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="T9" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
@@ -1763,58 +1763,58 @@
         <v>2.37</v>
       </c>
       <c r="AA9" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="AC9" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AD9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE9" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AG9" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AH9" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AI9" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AJ9" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="AK9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL9" t="n">
         <v>110</v>
       </c>
       <c r="AM9" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AN9" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AP9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ9" t="n">
         <v>19.5</v>
       </c>
       <c r="AR9" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AS9" t="n">
         <v>101</v>
@@ -1852,59 +1852,59 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H10" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I10" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="J10" t="n">
         <v>2.27</v>
       </c>
       <c r="K10" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="L10" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="M10" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="N10" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="O10" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P10" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="T10" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="n">
-        <v>4.35</v>
+        <v>4.25</v>
       </c>
       <c r="X10" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="Z10" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="AA10" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="AB10" t="n">
         <v>1.57</v>
@@ -1913,7 +1913,7 @@
         <v>4.9</v>
       </c>
       <c r="AD10" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AE10" t="n">
         <v>8.5</v>
@@ -1922,40 +1922,40 @@
         <v>12.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AH10" t="n">
         <v>40</v>
       </c>
       <c r="AI10" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="AJ10" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL10" t="n">
         <v>150</v>
       </c>
       <c r="AM10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN10" t="n">
         <v>35</v>
       </c>
       <c r="AO10" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AP10" t="n">
         <v>150</v>
       </c>
       <c r="AQ10" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AR10" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AS10" t="n">
         <v>101</v>
@@ -1993,16 +1993,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="H11" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I11" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="J11" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="K11" t="n">
         <v>1.95</v>
@@ -2043,16 +2043,16 @@
         <v>1.17</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Z11" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AA11" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AC11" t="n">
         <v>8.5</v>
@@ -2073,7 +2073,7 @@
         <v>51</v>
       </c>
       <c r="AI11" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AJ11" t="n">
         <v>6.5</v>
@@ -2088,7 +2088,7 @@
         <v>5.5</v>
       </c>
       <c r="AN11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AO11" t="n">
         <v>9.5</v>
@@ -2138,13 +2138,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H12" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I12" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J12" t="n">
         <v>2.25</v>
@@ -2153,7 +2153,7 @@
         <v>2.2</v>
       </c>
       <c r="L12" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M12" t="n">
         <v>1.07</v>
@@ -2196,7 +2196,7 @@
         <v>1.73</v>
       </c>
       <c r="AC12" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD12" t="n">
         <v>7</v>
@@ -2244,7 +2244,7 @@
         <v>51</v>
       </c>
       <c r="AS12" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
     </row>
     <row r="13">
@@ -2279,13 +2279,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H13" t="n">
         <v>3</v>
       </c>
       <c r="I13" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J13" t="n">
         <v>3.75</v>
@@ -2294,7 +2294,7 @@
         <v>1.83</v>
       </c>
       <c r="L13" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M13" t="n">
         <v>1.13</v>
@@ -2303,10 +2303,10 @@
         <v>6</v>
       </c>
       <c r="O13" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P13" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="Q13" t="n">
         <v>2.1</v>
@@ -2329,10 +2329,10 @@
         <v>1.14</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Z13" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AA13" t="n">
         <v>2.25</v>
@@ -2341,13 +2341,13 @@
         <v>1.57</v>
       </c>
       <c r="AC13" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF13" t="n">
         <v>29</v>
@@ -2362,7 +2362,7 @@
         <v>6</v>
       </c>
       <c r="AJ13" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AK13" t="n">
         <v>21</v>
@@ -2424,22 +2424,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="H14" t="n">
         <v>3.2</v>
       </c>
       <c r="I14" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="J14" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K14" t="n">
         <v>2</v>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M14" t="n">
         <v>1.08</v>
@@ -2476,13 +2476,13 @@
         <v>2.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AB14" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD14" t="n">
         <v>10</v>
@@ -2503,16 +2503,16 @@
         <v>8</v>
       </c>
       <c r="AJ14" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AK14" t="n">
         <v>17</v>
       </c>
       <c r="AL14" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM14" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AN14" t="n">
         <v>15</v>
@@ -2530,7 +2530,7 @@
         <v>41</v>
       </c>
       <c r="AS14" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15">
@@ -2571,7 +2571,7 @@
         <v>3.6</v>
       </c>
       <c r="I15" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J15" t="n">
         <v>2.63</v>
@@ -2580,7 +2580,7 @@
         <v>2.3</v>
       </c>
       <c r="L15" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M15" t="n">
         <v>1.03</v>
@@ -2589,18 +2589,18 @@
         <v>15</v>
       </c>
       <c r="O15" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P15" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T15" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="U15" t="n">
         <v>1.99</v>
@@ -2609,22 +2609,22 @@
         <v>1.74</v>
       </c>
       <c r="W15" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="X15" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Z15" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AA15" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AB15" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AC15" t="n">
         <v>10</v>
@@ -2672,7 +2672,7 @@
         <v>23</v>
       </c>
       <c r="AR15" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AS15" t="n">
         <v>126</v>
@@ -2854,7 +2854,7 @@
         <v>3</v>
       </c>
       <c r="H17" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I17" t="n">
         <v>2.35</v>
@@ -2863,10 +2863,10 @@
         <v>4</v>
       </c>
       <c r="K17" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="L17" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M17" t="n">
         <v>1.1</v>
@@ -2881,10 +2881,10 @@
         <v>2.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R17" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S17" t="n">
         <v>2.5</v>
@@ -2901,19 +2901,19 @@
         <v>1.17</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Z17" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AA17" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AB17" t="n">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD17" t="n">
         <v>13</v>
@@ -2931,10 +2931,10 @@
         <v>41</v>
       </c>
       <c r="AI17" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AJ17" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AK17" t="n">
         <v>19</v>
@@ -2943,7 +2943,7 @@
         <v>67</v>
       </c>
       <c r="AM17" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AN17" t="n">
         <v>10</v>
@@ -2955,7 +2955,7 @@
         <v>23</v>
       </c>
       <c r="AQ17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR17" t="n">
         <v>41</v>
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H18" t="n">
         <v>3.5</v>
@@ -3005,19 +3005,19 @@
         <v>4.75</v>
       </c>
       <c r="J18" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K18" t="n">
         <v>2.2</v>
       </c>
       <c r="L18" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M18" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O18" t="n">
         <v>1.29</v>
@@ -3048,22 +3048,22 @@
         <v>2.75</v>
       </c>
       <c r="AA18" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="AB18" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="AC18" t="n">
         <v>7</v>
       </c>
       <c r="AD18" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE18" t="n">
         <v>8.5</v>
       </c>
       <c r="AF18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG18" t="n">
         <v>15</v>
@@ -3075,7 +3075,7 @@
         <v>10</v>
       </c>
       <c r="AJ18" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AK18" t="n">
         <v>15</v>
@@ -3137,22 +3137,22 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="H19" t="n">
         <v>3.1</v>
       </c>
       <c r="I19" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="J19" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K19" t="n">
         <v>2</v>
       </c>
       <c r="L19" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M19" t="n">
         <v>1.07</v>
@@ -3189,22 +3189,22 @@
         <v>2.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="AB19" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="AC19" t="n">
         <v>7.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF19" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG19" t="n">
         <v>23</v>
@@ -3225,16 +3225,16 @@
         <v>51</v>
       </c>
       <c r="AM19" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AN19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ19" t="n">
         <v>23</v>
@@ -3330,10 +3330,10 @@
         <v>2.63</v>
       </c>
       <c r="AA20" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="AB20" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="AC20" t="n">
         <v>6.5</v>
@@ -3449,10 +3449,10 @@
         <v>2.63</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="R21" t="n">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="S21" t="n">
         <v>2.35</v>
@@ -3463,10 +3463,10 @@
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
       <c r="W21" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="X21" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="Y21" t="n">
         <v>1.53</v>
@@ -3564,83 +3564,87 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="H22" t="n">
         <v>3.1</v>
       </c>
       <c r="I22" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="J22" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="K22" t="n">
         <v>2</v>
       </c>
       <c r="L22" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M22" t="n">
         <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O22" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P22" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
+        <v>2.63</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.99</v>
+      </c>
       <c r="S22" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="T22" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="X22" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Z22" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AA22" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AB22" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AC22" t="n">
         <v>9.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF22" t="n">
         <v>41</v>
       </c>
       <c r="AG22" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AH22" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI22" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AJ22" t="n">
         <v>6</v>
@@ -3649,19 +3653,19 @@
         <v>17</v>
       </c>
       <c r="AL22" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM22" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AN22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO22" t="n">
         <v>9</v>
       </c>
       <c r="AP22" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ22" t="n">
         <v>19</v>
@@ -3670,7 +3674,7 @@
         <v>34</v>
       </c>
       <c r="AS22" t="n">
-        <v>401</v>
+        <v>501</v>
       </c>
     </row>
     <row r="23">
@@ -3711,22 +3715,22 @@
         <v>3.3</v>
       </c>
       <c r="I23" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J23" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K23" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L23" t="n">
         <v>3.6</v>
       </c>
       <c r="M23" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O23" t="n">
         <v>1.29</v>
@@ -3737,18 +3741,18 @@
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="T23" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="X23" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Y23" t="n">
         <v>1.4</v>
@@ -3769,13 +3773,13 @@
         <v>11</v>
       </c>
       <c r="AE23" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF23" t="n">
         <v>21</v>
       </c>
       <c r="AG23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH23" t="n">
         <v>26</v>
@@ -3784,7 +3788,7 @@
         <v>10</v>
       </c>
       <c r="AJ23" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AK23" t="n">
         <v>13</v>
@@ -3796,10 +3800,10 @@
         <v>10</v>
       </c>
       <c r="AN23" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP23" t="n">
         <v>34</v>
@@ -3864,32 +3868,32 @@
         <v>4.5</v>
       </c>
       <c r="M24" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N24" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O24" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P24" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="T24" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="X24" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Y24" t="n">
         <v>1.44</v>
@@ -3993,50 +3997,50 @@
         <v>3.8</v>
       </c>
       <c r="I25" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J25" t="n">
         <v>2.38</v>
       </c>
       <c r="K25" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L25" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M25" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O25" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P25" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="T25" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="X25" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Z25" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AA25" t="n">
         <v>1.8</v>
@@ -4045,10 +4049,10 @@
         <v>1.95</v>
       </c>
       <c r="AC25" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD25" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE25" t="n">
         <v>8.5</v>
@@ -4057,16 +4061,16 @@
         <v>13</v>
       </c>
       <c r="AG25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH25" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ25" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AK25" t="n">
         <v>15</v>
@@ -4087,7 +4091,7 @@
         <v>51</v>
       </c>
       <c r="AQ25" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR25" t="n">
         <v>41</v>
@@ -4275,7 +4279,7 @@
         <v>4.75</v>
       </c>
       <c r="I27" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J27" t="n">
         <v>1.83</v>
@@ -4290,7 +4294,7 @@
         <v>1.03</v>
       </c>
       <c r="N27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O27" t="n">
         <v>1.17</v>
@@ -4307,10 +4311,10 @@
         <v>2.35</v>
       </c>
       <c r="U27" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V27" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W27" t="n">
         <v>2.38</v>
@@ -4331,7 +4335,7 @@
         <v>1.83</v>
       </c>
       <c r="AC27" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD27" t="n">
         <v>7.5</v>
@@ -4367,7 +4371,7 @@
         <v>41</v>
       </c>
       <c r="AO27" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP27" t="n">
         <v>81</v>
@@ -4376,7 +4380,7 @@
         <v>51</v>
       </c>
       <c r="AR27" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS27" t="n">
         <v>251</v>
@@ -4414,38 +4418,38 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="H28" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I28" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J28" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="K28" t="n">
         <v>2.1</v>
       </c>
       <c r="L28" t="n">
-        <v>4.8</v>
+        <v>4.75</v>
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P28" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="T28" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
@@ -4453,13 +4457,13 @@
         <v>2.95</v>
       </c>
       <c r="X28" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Y28" t="n">
         <v>1.4</v>
       </c>
       <c r="Z28" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="AA28" t="n">
         <v>1.8</v>
@@ -4468,16 +4472,16 @@
         <v>1.8</v>
       </c>
       <c r="AC28" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AD28" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AE28" t="n">
         <v>8.25</v>
       </c>
       <c r="AF28" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AG28" t="n">
         <v>14</v>
@@ -4486,25 +4490,25 @@
         <v>28</v>
       </c>
       <c r="AI28" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AJ28" t="n">
         <v>7</v>
       </c>
       <c r="AK28" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AL28" t="n">
         <v>80</v>
       </c>
       <c r="AM28" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AN28" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO28" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AP28" t="n">
         <v>75</v>
@@ -4551,22 +4555,22 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="H29" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="I29" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="J29" t="n">
         <v>1.95</v>
       </c>
       <c r="K29" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="L29" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
@@ -4601,43 +4605,43 @@
         <v>1.93</v>
       </c>
       <c r="AC29" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AD29" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AE29" t="n">
         <v>8</v>
       </c>
       <c r="AF29" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AG29" t="n">
         <v>11</v>
       </c>
       <c r="AH29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI29" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AJ29" t="n">
         <v>8.5</v>
       </c>
       <c r="AK29" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AL29" t="n">
         <v>60</v>
       </c>
       <c r="AM29" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN29" t="n">
         <v>45</v>
       </c>
       <c r="AO29" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AP29" t="n">
         <v>150</v>
@@ -4821,22 +4825,22 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="H31" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I31" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="J31" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="K31" t="n">
         <v>2.2</v>
       </c>
       <c r="L31" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="M31" t="n">
         <v>1.05</v>
@@ -4871,40 +4875,40 @@
         <v>1.33</v>
       </c>
       <c r="Y31" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Z31" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AA31" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AB31" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AC31" t="n">
         <v>15</v>
       </c>
       <c r="AD31" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE31" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF31" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG31" t="n">
         <v>51</v>
       </c>
-      <c r="AG31" t="n">
-        <v>41</v>
-      </c>
       <c r="AH31" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ31" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AK31" t="n">
         <v>19</v>
@@ -4913,22 +4917,22 @@
         <v>51</v>
       </c>
       <c r="AM31" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AN31" t="n">
         <v>7</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>7.5</v>
       </c>
       <c r="AO31" t="n">
         <v>8.5</v>
       </c>
       <c r="AP31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ31" t="n">
         <v>13</v>
       </c>
       <c r="AR31" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AS31" t="n">
         <v>1000</v>
@@ -4966,13 +4970,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H32" t="n">
         <v>3.2</v>
       </c>
       <c r="I32" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J32" t="n">
         <v>3.75</v>
@@ -4981,7 +4985,7 @@
         <v>2</v>
       </c>
       <c r="L32" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="M32" t="n">
         <v>1.07</v>
@@ -4998,7 +5002,7 @@
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="T32" t="n">
         <v>1.67</v>
@@ -5006,10 +5010,10 @@
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
       <c r="W32" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="X32" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Y32" t="n">
         <v>1.44</v>
@@ -5018,10 +5022,10 @@
         <v>2.63</v>
       </c>
       <c r="AA32" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AB32" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AC32" t="n">
         <v>9</v>
@@ -5048,7 +5052,7 @@
         <v>6.5</v>
       </c>
       <c r="AK32" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL32" t="n">
         <v>51</v>
@@ -5110,7 +5114,7 @@
         <v>3.4</v>
       </c>
       <c r="H33" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I33" t="n">
         <v>2</v>
@@ -5119,38 +5123,38 @@
         <v>4</v>
       </c>
       <c r="K33" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L33" t="n">
         <v>2.75</v>
       </c>
       <c r="M33" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N33" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O33" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P33" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr"/>
       <c r="S33" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T33" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
       <c r="W33" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="X33" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="Y33" t="n">
         <v>1.4</v>
@@ -5159,19 +5163,19 @@
         <v>2.75</v>
       </c>
       <c r="AA33" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AB33" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AC33" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD33" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE33" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF33" t="n">
         <v>41</v>
@@ -5183,10 +5187,10 @@
         <v>34</v>
       </c>
       <c r="AI33" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ33" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AK33" t="n">
         <v>15</v>
@@ -5195,25 +5199,25 @@
         <v>51</v>
       </c>
       <c r="AM33" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AN33" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AO33" t="n">
         <v>9</v>
       </c>
       <c r="AP33" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ33" t="n">
         <v>17</v>
       </c>
       <c r="AR33" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AS33" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
     </row>
     <row r="34">
@@ -5251,13 +5255,13 @@
         <v>2.25</v>
       </c>
       <c r="H34" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I34" t="n">
         <v>3.1</v>
       </c>
-      <c r="I34" t="n">
-        <v>3</v>
-      </c>
       <c r="J34" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K34" t="n">
         <v>1.95</v>
@@ -5278,10 +5282,10 @@
         <v>2.63</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="R34" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="S34" t="n">
         <v>2.35</v>
@@ -5292,10 +5296,10 @@
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
       <c r="W34" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="X34" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="Y34" t="n">
         <v>1.53</v>
@@ -5331,10 +5335,10 @@
         <v>7.5</v>
       </c>
       <c r="AJ34" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AK34" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL34" t="n">
         <v>67</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-04.xlsx
@@ -990,110 +990,110 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="H4" t="n">
         <v>2.85</v>
       </c>
       <c r="I4" t="n">
-        <v>2.22</v>
+        <v>2.37</v>
       </c>
       <c r="J4" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="K4" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M4" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N4" t="n">
-        <v>4.35</v>
+        <v>4.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P4" t="n">
-        <v>2.05</v>
+        <v>2.12</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="n">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
       <c r="T4" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="n">
-        <v>4.3</v>
+        <v>4.55</v>
       </c>
       <c r="X4" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.27</v>
+        <v>2.18</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AC4" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AG4" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AH4" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AI4" t="n">
-        <v>4.65</v>
+        <v>4.8</v>
       </c>
       <c r="AJ4" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AK4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL4" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AM4" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="AN4" t="n">
-        <v>8.75</v>
+        <v>9.75</v>
       </c>
       <c r="AO4" t="n">
         <v>10.5</v>
       </c>
       <c r="AP4" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AQ4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AR4" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AS4" t="n">
         <v>600</v>
@@ -1272,22 +1272,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H6" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J6" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K6" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L6" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
         <v>1.1</v>
@@ -1335,13 +1335,13 @@
         <v>2.1</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="AC6" t="n">
         <v>6</v>
       </c>
       <c r="AD6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE6" t="n">
         <v>10</v>
@@ -1350,7 +1350,7 @@
         <v>21</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH6" t="n">
         <v>41</v>
@@ -1377,7 +1377,7 @@
         <v>13</v>
       </c>
       <c r="AP6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ6" t="n">
         <v>34</v>
@@ -1421,28 +1421,28 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="H7" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I7" t="n">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="J7" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="K7" t="n">
         <v>2</v>
       </c>
       <c r="L7" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M7" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O7" t="n">
         <v>1.44</v>
@@ -1451,10 +1451,10 @@
         <v>2.63</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="R7" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S7" t="n">
         <v>2.35</v>
@@ -1463,16 +1463,16 @@
         <v>1.57</v>
       </c>
       <c r="U7" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="V7" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W7" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="X7" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="Y7" t="n">
         <v>1.53</v>
@@ -1484,28 +1484,28 @@
         <v>2.1</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="AC7" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AE7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF7" t="n">
         <v>41</v>
       </c>
       <c r="AG7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AH7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AJ7" t="n">
         <v>6.5</v>
@@ -1520,13 +1520,13 @@
         <v>6</v>
       </c>
       <c r="AN7" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AO7" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ7" t="n">
         <v>19</v>
@@ -1535,7 +1535,7 @@
         <v>34</v>
       </c>
       <c r="AS7" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="8">
@@ -1579,41 +1579,41 @@
         <v>2.9</v>
       </c>
       <c r="J8" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K8" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="L8" t="n">
         <v>3.65</v>
       </c>
       <c r="M8" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="N8" t="n">
-        <v>4.45</v>
+        <v>4.55</v>
       </c>
       <c r="O8" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="P8" t="n">
-        <v>2.05</v>
+        <v>2.12</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>2.95</v>
+        <v>2.87</v>
       </c>
       <c r="T8" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="X8" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="Y8" t="n">
         <v>1.65</v>
@@ -1622,58 +1622,58 @@
         <v>2.1</v>
       </c>
       <c r="AA8" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AB8" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AC8" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AD8" t="n">
         <v>13</v>
       </c>
       <c r="AE8" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AF8" t="n">
         <v>40</v>
       </c>
       <c r="AG8" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AH8" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AI8" t="n">
-        <v>4.45</v>
+        <v>4.55</v>
       </c>
       <c r="AJ8" t="n">
         <v>5.3</v>
       </c>
       <c r="AK8" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AL8" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AM8" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AN8" t="n">
         <v>13</v>
       </c>
       <c r="AO8" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AP8" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AQ8" t="n">
         <v>32</v>
       </c>
       <c r="AR8" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AS8" t="n">
         <v>101</v>
@@ -1711,22 +1711,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="H9" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="I9" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="J9" t="n">
-        <v>4.85</v>
+        <v>4.7</v>
       </c>
       <c r="K9" t="n">
         <v>1.91</v>
       </c>
       <c r="L9" t="n">
-        <v>2.62</v>
+        <v>2.67</v>
       </c>
       <c r="M9" t="n">
         <v>1.12</v>
@@ -1735,10 +1735,10 @@
         <v>5.3</v>
       </c>
       <c r="O9" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="P9" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
@@ -1751,37 +1751,37 @@
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="X9" t="n">
         <v>1.17</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="Z9" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="AA9" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AD9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE9" t="n">
         <v>14.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AG9" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AH9" t="n">
         <v>65</v>
@@ -1790,31 +1790,31 @@
         <v>5.3</v>
       </c>
       <c r="AJ9" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AK9" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AL9" t="n">
         <v>110</v>
       </c>
       <c r="AM9" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AN9" t="n">
         <v>8.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AP9" t="n">
         <v>19</v>
       </c>
       <c r="AQ9" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AR9" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AS9" t="n">
         <v>101</v>
@@ -1852,101 +1852,101 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H10" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I10" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="L10" t="n">
         <v>6.1</v>
       </c>
-      <c r="J10" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="L10" t="n">
-        <v>6</v>
-      </c>
       <c r="M10" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N10" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="O10" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="P10" t="n">
-        <v>2.5</v>
+        <v>2.37</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
-        <v>2.37</v>
+        <v>2.5</v>
       </c>
       <c r="T10" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="n">
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="X10" t="n">
-        <v>1.19</v>
+        <v>1.16</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="Z10" t="n">
-        <v>2.37</v>
+        <v>2.27</v>
       </c>
       <c r="AA10" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AC10" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="AD10" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AE10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF10" t="n">
         <v>12.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AI10" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="AJ10" t="n">
         <v>6.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL10" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AM10" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AN10" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AO10" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AP10" t="n">
         <v>150</v>
@@ -1955,7 +1955,7 @@
         <v>80</v>
       </c>
       <c r="AR10" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AS10" t="n">
         <v>101</v>
@@ -2023,16 +2023,16 @@
         <v>2.63</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R11" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S11" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T11" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
@@ -2138,28 +2138,28 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="H12" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I12" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="J12" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K12" t="n">
         <v>2.2</v>
       </c>
       <c r="L12" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O12" t="n">
         <v>1.33</v>
@@ -2170,24 +2170,24 @@
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="T12" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="X12" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Z12" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AA12" t="n">
         <v>2</v>
@@ -2199,16 +2199,16 @@
         <v>6</v>
       </c>
       <c r="AD12" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE12" t="n">
         <v>8.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH12" t="n">
         <v>29</v>
@@ -2217,34 +2217,34 @@
         <v>9</v>
       </c>
       <c r="AJ12" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AK12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL12" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN12" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP12" t="n">
         <v>67</v>
       </c>
       <c r="AQ12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR12" t="n">
         <v>51</v>
       </c>
       <c r="AS12" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
     </row>
     <row r="13">
@@ -2603,10 +2603,10 @@
         <v>2.25</v>
       </c>
       <c r="U15" t="n">
-        <v>1.99</v>
+        <v>2.03</v>
       </c>
       <c r="V15" t="n">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
       <c r="W15" t="n">
         <v>2.5</v>
@@ -2621,10 +2621,10 @@
         <v>3.4</v>
       </c>
       <c r="AA15" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="AB15" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AC15" t="n">
         <v>10</v>
@@ -2863,42 +2863,42 @@
         <v>4</v>
       </c>
       <c r="K17" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="L17" t="n">
         <v>3.25</v>
       </c>
       <c r="M17" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O17" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P17" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="R17" t="n">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="S17" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="T17" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="X17" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="Y17" t="n">
         <v>1.57</v>
@@ -2910,7 +2910,7 @@
         <v>2.1</v>
       </c>
       <c r="AB17" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="AC17" t="n">
         <v>7</v>
@@ -3014,29 +3014,29 @@
         <v>4.75</v>
       </c>
       <c r="M18" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O18" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="P18" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="T18" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="X18" t="n">
         <v>1.3</v>
@@ -3048,10 +3048,10 @@
         <v>2.75</v>
       </c>
       <c r="AA18" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="AB18" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="AC18" t="n">
         <v>7</v>
@@ -3137,31 +3137,31 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="H19" t="n">
         <v>3.1</v>
       </c>
       <c r="I19" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="J19" t="n">
         <v>3.4</v>
       </c>
       <c r="K19" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L19" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M19" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N19" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O19" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P19" t="n">
         <v>3</v>
@@ -3169,36 +3169,36 @@
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="T19" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="X19" t="n">
         <v>1.22</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Z19" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AA19" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="AB19" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="AC19" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE19" t="n">
         <v>10</v>
@@ -3213,7 +3213,7 @@
         <v>34</v>
       </c>
       <c r="AI19" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AJ19" t="n">
         <v>6</v>
@@ -3228,13 +3228,13 @@
         <v>8</v>
       </c>
       <c r="AN19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP19" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ19" t="n">
         <v>23</v>
@@ -3243,7 +3243,7 @@
         <v>34</v>
       </c>
       <c r="AS19" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
     </row>
     <row r="20">
@@ -3278,13 +3278,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H20" t="n">
         <v>3.4</v>
       </c>
       <c r="I20" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J20" t="n">
         <v>2.4</v>
@@ -3296,32 +3296,32 @@
         <v>5</v>
       </c>
       <c r="M20" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N20" t="n">
         <v>10</v>
       </c>
       <c r="O20" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="P20" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="T20" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="X20" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="Y20" t="n">
         <v>1.44</v>
@@ -3330,10 +3330,10 @@
         <v>2.63</v>
       </c>
       <c r="AA20" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="AB20" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="AC20" t="n">
         <v>6.5</v>
@@ -3360,13 +3360,13 @@
         <v>6.5</v>
       </c>
       <c r="AK20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL20" t="n">
         <v>51</v>
       </c>
       <c r="AM20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN20" t="n">
         <v>23</v>
@@ -3437,28 +3437,28 @@
         <v>4</v>
       </c>
       <c r="M21" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N21" t="n">
         <v>8</v>
       </c>
       <c r="O21" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="P21" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="R21" t="n">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="S21" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="T21" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
@@ -3466,13 +3466,13 @@
         <v>4.33</v>
       </c>
       <c r="X21" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AA21" t="n">
         <v>2</v>
@@ -3582,51 +3582,51 @@
         <v>2.75</v>
       </c>
       <c r="M22" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N22" t="n">
         <v>8</v>
       </c>
       <c r="O22" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="P22" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="R22" t="n">
-        <v>1.99</v>
+        <v>2.05</v>
       </c>
       <c r="S22" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="T22" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="X22" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AA22" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AB22" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AC22" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD22" t="n">
         <v>21</v>
@@ -3641,7 +3641,7 @@
         <v>41</v>
       </c>
       <c r="AH22" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI22" t="n">
         <v>7</v>
@@ -3659,7 +3659,7 @@
         <v>6</v>
       </c>
       <c r="AN22" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AO22" t="n">
         <v>9</v>
@@ -3674,7 +3674,7 @@
         <v>34</v>
       </c>
       <c r="AS22" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
     </row>
     <row r="23">
@@ -3727,32 +3727,32 @@
         <v>3.6</v>
       </c>
       <c r="M23" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N23" t="n">
         <v>10</v>
       </c>
       <c r="O23" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="P23" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="n">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="T23" t="n">
-        <v>1.82</v>
+        <v>1.74</v>
       </c>
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="X23" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="Y23" t="n">
         <v>1.4</v>
@@ -3761,7 +3761,7 @@
         <v>2.75</v>
       </c>
       <c r="AA23" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AB23" t="n">
         <v>2.05</v>
@@ -3850,13 +3850,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H24" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I24" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J24" t="n">
         <v>2.75</v>
@@ -3865,53 +3865,53 @@
         <v>2.05</v>
       </c>
       <c r="L24" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M24" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O24" t="n">
         <v>1.33</v>
       </c>
       <c r="P24" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="n">
-        <v>2.08</v>
+        <v>2.25</v>
       </c>
       <c r="T24" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="X24" t="n">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="Y24" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="AB24" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="AC24" t="n">
         <v>6.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE24" t="n">
         <v>9</v>
@@ -3920,16 +3920,16 @@
         <v>17</v>
       </c>
       <c r="AG24" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH24" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI24" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AJ24" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AK24" t="n">
         <v>17</v>
@@ -3991,65 +3991,65 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="H25" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I25" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J25" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="K25" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L25" t="n">
         <v>5</v>
       </c>
       <c r="M25" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N25" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O25" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="P25" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="n">
-        <v>1.87</v>
+        <v>1.79</v>
       </c>
       <c r="T25" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="X25" t="n">
         <v>1.33</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Z25" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AA25" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="AB25" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="AC25" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD25" t="n">
         <v>8</v>
@@ -4061,19 +4061,19 @@
         <v>13</v>
       </c>
       <c r="AG25" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH25" t="n">
         <v>26</v>
       </c>
       <c r="AI25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ25" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AK25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL25" t="n">
         <v>51</v>
@@ -4150,41 +4150,41 @@
         <v>6.5</v>
       </c>
       <c r="M26" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N26" t="n">
         <v>10</v>
       </c>
       <c r="O26" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="P26" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="n">
-        <v>2.08</v>
+        <v>1.99</v>
       </c>
       <c r="T26" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="X26" t="n">
         <v>1.25</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Z26" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AA26" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AB26" t="n">
         <v>1.67</v>
@@ -4205,10 +4205,10 @@
         <v>13</v>
       </c>
       <c r="AH26" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI26" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AJ26" t="n">
         <v>7.5</v>
@@ -4238,7 +4238,7 @@
         <v>51</v>
       </c>
       <c r="AS26" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
     </row>
     <row r="27">
@@ -4273,117 +4273,117 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="H27" t="n">
-        <v>4.75</v>
+        <v>4.1</v>
       </c>
       <c r="I27" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="J27" t="n">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="K27" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L27" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="M27" t="n">
         <v>1.03</v>
       </c>
       <c r="N27" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O27" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P27" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T27" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="U27" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V27" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W27" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="X27" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Z27" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AA27" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="AB27" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AC27" t="n">
         <v>8.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE27" t="n">
         <v>8.5</v>
       </c>
       <c r="AF27" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AG27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH27" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI27" t="n">
         <v>15</v>
       </c>
       <c r="AJ27" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AK27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM27" t="n">
         <v>19</v>
       </c>
-      <c r="AL27" t="n">
+      <c r="AN27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP27" t="n">
         <v>51</v>
       </c>
-      <c r="AM27" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN27" t="n">
+      <c r="AQ27" t="n">
         <v>41</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>81</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>51</v>
       </c>
       <c r="AR27" t="n">
         <v>41</v>
       </c>
       <c r="AS27" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28">
@@ -4418,27 +4418,27 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="H28" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="I28" t="n">
         <v>4.4</v>
       </c>
       <c r="J28" t="n">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="K28" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="L28" t="n">
-        <v>4.75</v>
+        <v>4.7</v>
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P28" t="n">
         <v>3</v>
@@ -4454,10 +4454,10 @@
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
       <c r="W28" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="X28" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Y28" t="n">
         <v>1.4</v>
@@ -4466,61 +4466,61 @@
         <v>2.52</v>
       </c>
       <c r="AA28" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="AB28" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AC28" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AD28" t="n">
-        <v>7.8</v>
+        <v>8.5</v>
       </c>
       <c r="AE28" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AF28" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AG28" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AK28" t="n">
         <v>14</v>
       </c>
-      <c r="AH28" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>7</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>16</v>
-      </c>
       <c r="AL28" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP28" t="n">
         <v>80</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>12</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>25</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>75</v>
       </c>
       <c r="AQ28" t="n">
         <v>45</v>
       </c>
       <c r="AR28" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AS28" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
     </row>
     <row r="29">
@@ -4728,10 +4728,10 @@
         <v>1.72</v>
       </c>
       <c r="W30" t="n">
-        <v>3.1</v>
+        <v>2.57</v>
       </c>
       <c r="X30" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr"/>
@@ -4849,18 +4849,18 @@
         <v>8.5</v>
       </c>
       <c r="O31" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P31" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="T31" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="U31" t="n">
         <v>1.8</v>
@@ -4970,13 +4970,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H32" t="n">
         <v>3.2</v>
       </c>
       <c r="I32" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J32" t="n">
         <v>3.75</v>
@@ -4994,10 +4994,10 @@
         <v>7.5</v>
       </c>
       <c r="O32" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P32" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>2.1</v>
       </c>
       <c r="T32" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
@@ -5022,19 +5022,19 @@
         <v>2.63</v>
       </c>
       <c r="AA32" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AB32" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AC32" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD32" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE32" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF32" t="n">
         <v>34</v>
@@ -5052,7 +5052,7 @@
         <v>6.5</v>
       </c>
       <c r="AK32" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL32" t="n">
         <v>51</v>
@@ -5067,7 +5067,7 @@
         <v>9.5</v>
       </c>
       <c r="AP32" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ32" t="n">
         <v>19</v>
@@ -5111,22 +5111,22 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="H33" t="n">
         <v>3.5</v>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="J33" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K33" t="n">
         <v>2.2</v>
       </c>
       <c r="L33" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="M33" t="n">
         <v>1.05</v>
@@ -5143,18 +5143,18 @@
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr"/>
       <c r="S33" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T33" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
       <c r="W33" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="X33" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Y33" t="n">
         <v>1.4</v>
@@ -5163,19 +5163,19 @@
         <v>2.75</v>
       </c>
       <c r="AA33" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AB33" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AC33" t="n">
         <v>11</v>
       </c>
       <c r="AD33" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE33" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF33" t="n">
         <v>41</v>
@@ -5199,25 +5199,25 @@
         <v>51</v>
       </c>
       <c r="AM33" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AN33" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO33" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP33" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ33" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AR33" t="n">
         <v>26</v>
       </c>
       <c r="AS33" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
     </row>
     <row r="34">

--- a/Jogos_da_Semana_FlashScore_2025-03-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-04.xlsx
@@ -1272,19 +1272,19 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H6" t="n">
         <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="J6" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K6" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L6" t="n">
         <v>4</v>
@@ -1311,7 +1311,7 @@
         <v>2.5</v>
       </c>
       <c r="T6" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="U6" t="n">
         <v>4</v>
@@ -1335,10 +1335,10 @@
         <v>2.1</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AC6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AD6" t="n">
         <v>10</v>
@@ -1347,7 +1347,7 @@
         <v>10</v>
       </c>
       <c r="AF6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG6" t="n">
         <v>23</v>
@@ -1362,25 +1362,25 @@
         <v>6</v>
       </c>
       <c r="AK6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL6" t="n">
         <v>67</v>
       </c>
       <c r="AM6" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AN6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP6" t="n">
         <v>34</v>
       </c>
       <c r="AQ6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR6" t="n">
         <v>41</v>
@@ -1427,7 +1427,7 @@
         <v>3.3</v>
       </c>
       <c r="I7" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="J7" t="n">
         <v>5</v>
@@ -1460,7 +1460,7 @@
         <v>2.35</v>
       </c>
       <c r="T7" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="U7" t="n">
         <v>3.55</v>
@@ -1484,7 +1484,7 @@
         <v>2.1</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AC7" t="n">
         <v>9.5</v>
@@ -1570,28 +1570,28 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.92</v>
+        <v>3.3</v>
       </c>
       <c r="H8" t="n">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="I8" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="J8" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="K8" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="L8" t="n">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="M8" t="n">
         <v>1.16</v>
       </c>
       <c r="N8" t="n">
-        <v>4.55</v>
+        <v>4.65</v>
       </c>
       <c r="O8" t="n">
         <v>1.65</v>
@@ -1610,67 +1610,67 @@
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="X8" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="Y8" t="n">
         <v>1.65</v>
       </c>
       <c r="Z8" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="AA8" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AB8" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AC8" t="n">
-        <v>6.1</v>
+        <v>6.9</v>
       </c>
       <c r="AD8" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG8" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH8" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AI8" t="n">
-        <v>4.55</v>
+        <v>4.65</v>
       </c>
       <c r="AJ8" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AL8" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AM8" t="n">
-        <v>6.2</v>
+        <v>5.4</v>
       </c>
       <c r="AN8" t="n">
-        <v>13</v>
+        <v>10.25</v>
       </c>
       <c r="AO8" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AP8" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="AQ8" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AR8" t="n">
         <v>55</v>
@@ -1993,22 +1993,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="H11" t="n">
         <v>3.3</v>
       </c>
       <c r="I11" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="J11" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
         <v>1.95</v>
       </c>
       <c r="L11" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M11" t="n">
         <v>1.1</v>
@@ -2023,10 +2023,10 @@
         <v>2.63</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R11" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S11" t="n">
         <v>2.5</v>
@@ -2073,7 +2073,7 @@
         <v>51</v>
       </c>
       <c r="AI11" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AJ11" t="n">
         <v>6.5</v>
@@ -2138,13 +2138,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H12" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I12" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="J12" t="n">
         <v>2.2</v>
@@ -2153,19 +2153,19 @@
         <v>2.2</v>
       </c>
       <c r="L12" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M12" t="n">
         <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O12" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P12" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
@@ -2193,13 +2193,13 @@
         <v>2</v>
       </c>
       <c r="AB12" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AC12" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE12" t="n">
         <v>8.5</v>
@@ -2214,37 +2214,37 @@
         <v>29</v>
       </c>
       <c r="AI12" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AJ12" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AK12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL12" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM12" t="n">
         <v>15</v>
       </c>
       <c r="AN12" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AO12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP12" t="n">
         <v>67</v>
       </c>
       <c r="AQ12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR12" t="n">
         <v>51</v>
       </c>
       <c r="AS12" t="n">
-        <v>451</v>
+        <v>351</v>
       </c>
     </row>
     <row r="13">
@@ -2279,13 +2279,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H13" t="n">
         <v>3</v>
       </c>
       <c r="I13" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="J13" t="n">
         <v>3.75</v>
@@ -2294,7 +2294,7 @@
         <v>1.83</v>
       </c>
       <c r="L13" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M13" t="n">
         <v>1.13</v>
@@ -2329,10 +2329,10 @@
         <v>1.14</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Z13" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AA13" t="n">
         <v>2.25</v>
@@ -2341,13 +2341,13 @@
         <v>1.57</v>
       </c>
       <c r="AC13" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF13" t="n">
         <v>29</v>
@@ -2371,13 +2371,13 @@
         <v>81</v>
       </c>
       <c r="AM13" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AN13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP13" t="n">
         <v>29</v>
@@ -2424,7 +2424,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H14" t="n">
         <v>3.2</v>
@@ -2439,7 +2439,7 @@
         <v>2</v>
       </c>
       <c r="L14" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
         <v>1.08</v>
@@ -2448,10 +2448,10 @@
         <v>8</v>
       </c>
       <c r="O14" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P14" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>41</v>
       </c>
       <c r="AS14" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
     </row>
     <row r="15">
@@ -2597,16 +2597,16 @@
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="T15" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="U15" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="V15" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="W15" t="n">
         <v>2.5</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="H16" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I16" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
         <v>4.33</v>
@@ -2725,13 +2725,13 @@
         <v>2.1</v>
       </c>
       <c r="L16" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M16" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O16" t="n">
         <v>1.33</v>
@@ -2768,7 +2768,7 @@
         <v>1.91</v>
       </c>
       <c r="AC16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD16" t="n">
         <v>19</v>
@@ -2801,7 +2801,7 @@
         <v>7</v>
       </c>
       <c r="AN16" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AO16" t="n">
         <v>9</v>
@@ -2996,42 +2996,42 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="H18" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I18" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J18" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K18" t="n">
         <v>2.2</v>
       </c>
       <c r="L18" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M18" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N18" t="n">
         <v>11</v>
       </c>
       <c r="O18" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="P18" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="T18" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
@@ -3039,7 +3039,7 @@
         <v>3.25</v>
       </c>
       <c r="X18" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Y18" t="n">
         <v>1.4</v>
@@ -3054,7 +3054,7 @@
         <v>1.95</v>
       </c>
       <c r="AC18" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD18" t="n">
         <v>8.5</v>
@@ -3093,16 +3093,16 @@
         <v>15</v>
       </c>
       <c r="AP18" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AQ18" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR18" t="n">
         <v>41</v>
       </c>
       <c r="AS18" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19">
@@ -3137,13 +3137,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="H19" t="n">
         <v>3.1</v>
       </c>
       <c r="I19" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="J19" t="n">
         <v>3.4</v>
@@ -3155,13 +3155,13 @@
         <v>3.4</v>
       </c>
       <c r="M19" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O19" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P19" t="n">
         <v>3</v>
@@ -3180,7 +3180,7 @@
         <v>3.75</v>
       </c>
       <c r="X19" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Y19" t="n">
         <v>1.44</v>
@@ -3198,7 +3198,7 @@
         <v>8</v>
       </c>
       <c r="AD19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE19" t="n">
         <v>10</v>
@@ -3228,7 +3228,7 @@
         <v>8</v>
       </c>
       <c r="AN19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO19" t="n">
         <v>10</v>
@@ -3278,42 +3278,42 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="H20" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I20" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J20" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="K20" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L20" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M20" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O20" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="P20" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="T20" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
@@ -3321,25 +3321,25 @@
         <v>3.4</v>
       </c>
       <c r="X20" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Z20" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AA20" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AB20" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AC20" t="n">
         <v>6.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE20" t="n">
         <v>8.5</v>
@@ -3351,13 +3351,13 @@
         <v>15</v>
       </c>
       <c r="AH20" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI20" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AJ20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AK20" t="n">
         <v>17</v>
@@ -3369,7 +3369,7 @@
         <v>13</v>
       </c>
       <c r="AN20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO20" t="n">
         <v>17</v>
@@ -3437,13 +3437,13 @@
         <v>4</v>
       </c>
       <c r="M21" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N21" t="n">
         <v>8</v>
       </c>
       <c r="O21" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P21" t="n">
         <v>2.75</v>
@@ -3455,10 +3455,10 @@
         <v>2.05</v>
       </c>
       <c r="S21" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="T21" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
@@ -3466,7 +3466,7 @@
         <v>4.33</v>
       </c>
       <c r="X21" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="Y21" t="n">
         <v>1.5</v>
@@ -3564,7 +3564,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H22" t="n">
         <v>3.1</v>
@@ -3582,13 +3582,13 @@
         <v>2.75</v>
       </c>
       <c r="M22" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O22" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P22" t="n">
         <v>2.75</v>
@@ -3600,10 +3600,10 @@
         <v>2.05</v>
       </c>
       <c r="S22" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="T22" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
@@ -3611,7 +3611,7 @@
         <v>4.33</v>
       </c>
       <c r="X22" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="Y22" t="n">
         <v>1.5</v>
@@ -3629,7 +3629,7 @@
         <v>10</v>
       </c>
       <c r="AD22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE22" t="n">
         <v>15</v>
@@ -3644,7 +3644,7 @@
         <v>41</v>
       </c>
       <c r="AI22" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AJ22" t="n">
         <v>6</v>
@@ -3727,13 +3727,13 @@
         <v>3.6</v>
       </c>
       <c r="M23" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N23" t="n">
         <v>10</v>
       </c>
       <c r="O23" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P23" t="n">
         <v>3.4</v>
@@ -3741,10 +3741,10 @@
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="n">
-        <v>1.99</v>
+        <v>2.03</v>
       </c>
       <c r="T23" t="n">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
@@ -3752,7 +3752,7 @@
         <v>3.5</v>
       </c>
       <c r="X23" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Y23" t="n">
         <v>1.4</v>
@@ -3761,7 +3761,7 @@
         <v>2.75</v>
       </c>
       <c r="AA23" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AB23" t="n">
         <v>2.05</v>
@@ -3868,32 +3868,32 @@
         <v>4.33</v>
       </c>
       <c r="M24" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O24" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="P24" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="T24" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="X24" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="Y24" t="n">
         <v>1.5</v>
@@ -3902,10 +3902,10 @@
         <v>2.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="AB24" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="AC24" t="n">
         <v>6.5</v>
@@ -3991,31 +3991,31 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="H25" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I25" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J25" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K25" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L25" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M25" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O25" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P25" t="n">
         <v>3.75</v>
@@ -4023,10 +4023,10 @@
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="T25" t="n">
-        <v>1.94</v>
+        <v>2.03</v>
       </c>
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
@@ -4034,7 +4034,7 @@
         <v>3</v>
       </c>
       <c r="X25" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Y25" t="n">
         <v>1.36</v>
@@ -4043,22 +4043,22 @@
         <v>3</v>
       </c>
       <c r="AA25" t="n">
-        <v>1.77</v>
+        <v>1.91</v>
       </c>
       <c r="AB25" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="AC25" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD25" t="n">
         <v>7.5</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>8</v>
       </c>
       <c r="AE25" t="n">
         <v>8.5</v>
       </c>
       <c r="AF25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG25" t="n">
         <v>13</v>
@@ -4070,7 +4070,7 @@
         <v>12</v>
       </c>
       <c r="AJ25" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AK25" t="n">
         <v>17</v>
@@ -4082,7 +4082,7 @@
         <v>13</v>
       </c>
       <c r="AN25" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO25" t="n">
         <v>15</v>
@@ -4097,7 +4097,7 @@
         <v>41</v>
       </c>
       <c r="AS25" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
     </row>
     <row r="26">
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H26" t="n">
         <v>3.9</v>
       </c>
       <c r="I26" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J26" t="n">
         <v>2.1</v>
@@ -4150,13 +4150,13 @@
         <v>6.5</v>
       </c>
       <c r="M26" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O26" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P26" t="n">
         <v>3.4</v>
@@ -4164,10 +4164,10 @@
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="n">
-        <v>1.99</v>
+        <v>2.05</v>
       </c>
       <c r="T26" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
@@ -4175,7 +4175,7 @@
         <v>3.5</v>
       </c>
       <c r="X26" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Y26" t="n">
         <v>1.4</v>
@@ -4184,7 +4184,7 @@
         <v>2.75</v>
       </c>
       <c r="AA26" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AB26" t="n">
         <v>1.67</v>
@@ -4199,7 +4199,7 @@
         <v>8.5</v>
       </c>
       <c r="AF26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG26" t="n">
         <v>13</v>
@@ -4211,7 +4211,7 @@
         <v>9.5</v>
       </c>
       <c r="AJ26" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AK26" t="n">
         <v>21</v>
@@ -4223,7 +4223,7 @@
         <v>13</v>
       </c>
       <c r="AN26" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO26" t="n">
         <v>19</v>
@@ -4238,7 +4238,7 @@
         <v>51</v>
       </c>
       <c r="AS26" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
     </row>
     <row r="27">
@@ -4305,16 +4305,16 @@
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="T27" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="U27" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="V27" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W27" t="n">
         <v>2.5</v>
@@ -4708,10 +4708,10 @@
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="n">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="P30" t="n">
-        <v>3.6</v>
+        <v>4.9</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr"/>
@@ -4728,10 +4728,10 @@
         <v>1.72</v>
       </c>
       <c r="W30" t="n">
-        <v>2.57</v>
+        <v>2.9</v>
       </c>
       <c r="X30" t="n">
-        <v>1.39</v>
+        <v>1.31</v>
       </c>
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr"/>
@@ -4828,7 +4828,7 @@
         <v>6.25</v>
       </c>
       <c r="H31" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I31" t="n">
         <v>1.48</v>
@@ -4837,16 +4837,16 @@
         <v>6</v>
       </c>
       <c r="K31" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L31" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="M31" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N31" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="O31" t="n">
         <v>1.25</v>
@@ -4857,10 +4857,10 @@
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T31" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U31" t="n">
         <v>1.8</v>
@@ -4869,16 +4869,16 @@
         <v>2.05</v>
       </c>
       <c r="W31" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="X31" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Y31" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Z31" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AA31" t="n">
         <v>2</v>
@@ -4887,7 +4887,7 @@
         <v>1.73</v>
       </c>
       <c r="AC31" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD31" t="n">
         <v>34</v>
@@ -4905,7 +4905,7 @@
         <v>51</v>
       </c>
       <c r="AI31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ31" t="n">
         <v>8</v>
@@ -4917,13 +4917,13 @@
         <v>51</v>
       </c>
       <c r="AM31" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AN31" t="n">
         <v>7</v>
       </c>
       <c r="AO31" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP31" t="n">
         <v>10</v>
@@ -4935,7 +4935,7 @@
         <v>29</v>
       </c>
       <c r="AS31" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
     </row>
     <row r="32">
@@ -4970,28 +4970,28 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H32" t="n">
         <v>3.2</v>
       </c>
       <c r="I32" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J32" t="n">
         <v>3.75</v>
       </c>
       <c r="K32" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L32" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="M32" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N32" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="O32" t="n">
         <v>1.33</v>
@@ -5002,10 +5002,10 @@
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="T32" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
@@ -5022,10 +5022,10 @@
         <v>2.63</v>
       </c>
       <c r="AA32" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AB32" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AC32" t="n">
         <v>9.5</v>
@@ -5034,7 +5034,7 @@
         <v>17</v>
       </c>
       <c r="AE32" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF32" t="n">
         <v>34</v>
@@ -5052,13 +5052,13 @@
         <v>6.5</v>
       </c>
       <c r="AK32" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL32" t="n">
         <v>51</v>
       </c>
       <c r="AM32" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AN32" t="n">
         <v>10</v>
@@ -5073,7 +5073,7 @@
         <v>19</v>
       </c>
       <c r="AR32" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AS32" t="n">
         <v>151</v>
@@ -5282,10 +5282,10 @@
         <v>2.63</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="R34" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="S34" t="n">
         <v>2.35</v>
@@ -5296,10 +5296,10 @@
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
       <c r="W34" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="X34" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="Y34" t="n">
         <v>1.53</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS34"/>
+  <dimension ref="A1:AS33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1290,28 +1290,28 @@
         <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P6" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R6" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S6" t="n">
         <v>2.5</v>
       </c>
       <c r="T6" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="U6" t="n">
         <v>4</v>
@@ -1335,7 +1335,7 @@
         <v>2.1</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="AC6" t="n">
         <v>6.5</v>
@@ -1421,28 +1421,28 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H7" t="n">
         <v>3.3</v>
       </c>
       <c r="I7" t="n">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="K7" t="n">
         <v>2</v>
       </c>
       <c r="L7" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M7" t="n">
         <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.44</v>
@@ -1460,7 +1460,7 @@
         <v>2.35</v>
       </c>
       <c r="T7" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="U7" t="n">
         <v>3.55</v>
@@ -1484,13 +1484,13 @@
         <v>2.1</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="AC7" t="n">
         <v>9.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE7" t="n">
         <v>15</v>
@@ -1502,7 +1502,7 @@
         <v>41</v>
       </c>
       <c r="AH7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI7" t="n">
         <v>7.5</v>
@@ -1526,7 +1526,7 @@
         <v>9</v>
       </c>
       <c r="AP7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ7" t="n">
         <v>19</v>
@@ -1573,62 +1573,62 @@
         <v>3.3</v>
       </c>
       <c r="H8" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="I8" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="J8" t="n">
         <v>4</v>
       </c>
       <c r="K8" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="L8" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M8" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="N8" t="n">
-        <v>4.65</v>
+        <v>4.75</v>
       </c>
       <c r="O8" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P8" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>2.87</v>
+        <v>2.8</v>
       </c>
       <c r="T8" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="X8" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="Z8" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="AA8" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AB8" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AD8" t="n">
         <v>15.5</v>
@@ -1640,40 +1640,40 @@
         <v>50</v>
       </c>
       <c r="AG8" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AH8" t="n">
         <v>60</v>
       </c>
       <c r="AI8" t="n">
-        <v>4.65</v>
+        <v>4.75</v>
       </c>
       <c r="AJ8" t="n">
         <v>5.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AL8" t="n">
         <v>150</v>
       </c>
       <c r="AM8" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="AN8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AO8" t="n">
         <v>10.25</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>10.75</v>
       </c>
       <c r="AP8" t="n">
         <v>28</v>
       </c>
       <c r="AQ8" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AR8" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AS8" t="n">
         <v>101</v>
@@ -1711,22 +1711,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="H9" t="n">
-        <v>2.85</v>
+        <v>2.92</v>
       </c>
       <c r="I9" t="n">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="J9" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="K9" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="L9" t="n">
-        <v>2.67</v>
+        <v>2.57</v>
       </c>
       <c r="M9" t="n">
         <v>1.12</v>
@@ -1751,7 +1751,7 @@
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="n">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="X9" t="n">
         <v>1.17</v>
@@ -1763,55 +1763,55 @@
         <v>2.35</v>
       </c>
       <c r="AA9" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="AB9" t="n">
         <v>1.65</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AD9" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AE9" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AG9" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AH9" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AI9" t="n">
         <v>5.3</v>
       </c>
       <c r="AJ9" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="AK9" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AL9" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AM9" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="AN9" t="n">
-        <v>8.5</v>
+        <v>7.8</v>
       </c>
       <c r="AO9" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AP9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ9" t="n">
         <v>19</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>20</v>
       </c>
       <c r="AR9" t="n">
         <v>40</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="H10" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="I10" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="J10" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="K10" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="L10" t="n">
         <v>6.1</v>
@@ -1873,18 +1873,18 @@
         <v>1.12</v>
       </c>
       <c r="N10" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="O10" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="P10" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="T10" t="n">
         <v>1.47</v>
@@ -1892,7 +1892,7 @@
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="X10" t="n">
         <v>1.16</v>
@@ -1904,22 +1904,22 @@
         <v>2.27</v>
       </c>
       <c r="AA10" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="AC10" t="n">
-        <v>4.7</v>
+        <v>4.85</v>
       </c>
       <c r="AD10" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="AE10" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AF10" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG10" t="n">
         <v>17.5</v>
@@ -1928,31 +1928,31 @@
         <v>45</v>
       </c>
       <c r="AI10" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AJ10" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="AK10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL10" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AM10" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="AN10" t="n">
         <v>32</v>
       </c>
       <c r="AO10" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AP10" t="n">
         <v>150</v>
       </c>
       <c r="AQ10" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AR10" t="n">
         <v>100</v>
@@ -1993,13 +1993,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="H11" t="n">
         <v>3.3</v>
       </c>
       <c r="I11" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="J11" t="n">
         <v>5</v>
@@ -2017,30 +2017,30 @@
         <v>7</v>
       </c>
       <c r="O11" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P11" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="R11" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="S11" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="T11" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="X11" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="Y11" t="n">
         <v>1.57</v>
@@ -2049,10 +2049,10 @@
         <v>2.25</v>
       </c>
       <c r="AA11" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AC11" t="n">
         <v>8.5</v>
@@ -2064,7 +2064,7 @@
         <v>15</v>
       </c>
       <c r="AF11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG11" t="n">
         <v>41</v>
@@ -2073,7 +2073,7 @@
         <v>51</v>
       </c>
       <c r="AI11" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AJ11" t="n">
         <v>6.5</v>
@@ -2088,13 +2088,13 @@
         <v>5.5</v>
       </c>
       <c r="AN11" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AO11" t="n">
         <v>9.5</v>
       </c>
       <c r="AP11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ11" t="n">
         <v>19</v>
@@ -2138,42 +2138,42 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="H12" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I12" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J12" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K12" t="n">
         <v>2.2</v>
       </c>
       <c r="L12" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M12" t="n">
         <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O12" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P12" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="T12" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
@@ -2190,22 +2190,22 @@
         <v>2.75</v>
       </c>
       <c r="AA12" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AB12" t="n">
-        <v>1.69</v>
+        <v>1.8</v>
       </c>
       <c r="AC12" t="n">
         <v>6.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE12" t="n">
         <v>8.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG12" t="n">
         <v>13</v>
@@ -2226,16 +2226,16 @@
         <v>51</v>
       </c>
       <c r="AM12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN12" t="n">
         <v>29</v>
       </c>
       <c r="AO12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP12" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AQ12" t="n">
         <v>41</v>
@@ -2279,16 +2279,16 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H13" t="n">
         <v>3</v>
       </c>
       <c r="I13" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J13" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K13" t="n">
         <v>1.83</v>
@@ -2303,10 +2303,10 @@
         <v>6</v>
       </c>
       <c r="O13" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P13" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="Q13" t="n">
         <v>2.1</v>
@@ -2315,10 +2315,10 @@
         <v>1.78</v>
       </c>
       <c r="S13" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T13" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
@@ -2329,10 +2329,10 @@
         <v>1.14</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Z13" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AA13" t="n">
         <v>2.25</v>
@@ -2350,10 +2350,10 @@
         <v>11</v>
       </c>
       <c r="AF13" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG13" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AH13" t="n">
         <v>41</v>
@@ -2424,13 +2424,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H14" t="n">
         <v>3.2</v>
       </c>
       <c r="I14" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J14" t="n">
         <v>3.1</v>
@@ -2476,13 +2476,13 @@
         <v>2.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AB14" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AC14" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD14" t="n">
         <v>10</v>
@@ -2500,7 +2500,7 @@
         <v>34</v>
       </c>
       <c r="AI14" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AJ14" t="n">
         <v>6</v>
@@ -2512,7 +2512,7 @@
         <v>51</v>
       </c>
       <c r="AM14" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AN14" t="n">
         <v>15</v>
@@ -2565,22 +2565,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H15" t="n">
         <v>3.6</v>
       </c>
       <c r="I15" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="J15" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K15" t="n">
         <v>2.3</v>
       </c>
       <c r="L15" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M15" t="n">
         <v>1.03</v>
@@ -2589,18 +2589,18 @@
         <v>15</v>
       </c>
       <c r="O15" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P15" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="T15" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="U15" t="n">
         <v>2</v>
@@ -2609,10 +2609,10 @@
         <v>1.85</v>
       </c>
       <c r="W15" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="X15" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Y15" t="n">
         <v>1.3</v>
@@ -2630,7 +2630,7 @@
         <v>10</v>
       </c>
       <c r="AD15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE15" t="n">
         <v>9</v>
@@ -2648,7 +2648,7 @@
         <v>15</v>
       </c>
       <c r="AJ15" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AK15" t="n">
         <v>12</v>
@@ -2666,13 +2666,13 @@
         <v>12</v>
       </c>
       <c r="AP15" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ15" t="n">
         <v>23</v>
       </c>
       <c r="AR15" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AS15" t="n">
         <v>126</v>
@@ -2710,19 +2710,19 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="H16" t="n">
         <v>3.2</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J16" t="n">
         <v>4.33</v>
       </c>
       <c r="K16" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L16" t="n">
         <v>2.75</v>
@@ -2742,10 +2742,10 @@
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="T16" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
@@ -2771,7 +2771,7 @@
         <v>10</v>
       </c>
       <c r="AD16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE16" t="n">
         <v>13</v>
@@ -2780,7 +2780,7 @@
         <v>41</v>
       </c>
       <c r="AG16" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AH16" t="n">
         <v>41</v>
@@ -2807,7 +2807,7 @@
         <v>9</v>
       </c>
       <c r="AP16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ16" t="n">
         <v>17</v>
@@ -2851,10 +2851,10 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H17" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I17" t="n">
         <v>2.35</v>
@@ -2863,10 +2863,10 @@
         <v>4</v>
       </c>
       <c r="K17" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L17" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M17" t="n">
         <v>1.08</v>
@@ -2901,25 +2901,25 @@
         <v>1.18</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Z17" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AA17" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AB17" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AC17" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD17" t="n">
         <v>13</v>
       </c>
       <c r="AE17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF17" t="n">
         <v>34</v>
@@ -2931,10 +2931,10 @@
         <v>41</v>
       </c>
       <c r="AI17" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AJ17" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AK17" t="n">
         <v>19</v>
@@ -2943,7 +2943,7 @@
         <v>67</v>
       </c>
       <c r="AM17" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AN17" t="n">
         <v>10</v>
@@ -2955,10 +2955,10 @@
         <v>23</v>
       </c>
       <c r="AQ17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR17" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AS17" t="n">
         <v>501</v>
@@ -2996,13 +2996,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H18" t="n">
         <v>3.4</v>
       </c>
       <c r="I18" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J18" t="n">
         <v>2.5</v>
@@ -3014,24 +3014,24 @@
         <v>4.5</v>
       </c>
       <c r="M18" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O18" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P18" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="T18" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
@@ -3057,7 +3057,7 @@
         <v>7.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE18" t="n">
         <v>8.5</v>
@@ -3087,7 +3087,7 @@
         <v>13</v>
       </c>
       <c r="AN18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO18" t="n">
         <v>15</v>
@@ -3455,10 +3455,10 @@
         <v>2.05</v>
       </c>
       <c r="S21" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="T21" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
@@ -3585,7 +3585,7 @@
         <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O22" t="n">
         <v>1.4</v>
@@ -3882,18 +3882,18 @@
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="T24" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="X24" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="Y24" t="n">
         <v>1.5</v>
@@ -3991,10 +3991,10 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H25" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I25" t="n">
         <v>5</v>
@@ -4003,38 +4003,38 @@
         <v>2.2</v>
       </c>
       <c r="K25" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L25" t="n">
         <v>5.5</v>
       </c>
       <c r="M25" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O25" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P25" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="T25" t="n">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="X25" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Y25" t="n">
         <v>1.36</v>
@@ -4043,10 +4043,10 @@
         <v>3</v>
       </c>
       <c r="AA25" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AB25" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AC25" t="n">
         <v>7</v>
@@ -4067,10 +4067,10 @@
         <v>26</v>
       </c>
       <c r="AI25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ25" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AK25" t="n">
         <v>17</v>
@@ -4085,7 +4085,7 @@
         <v>26</v>
       </c>
       <c r="AO25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP25" t="n">
         <v>51</v>
@@ -4132,22 +4132,22 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H26" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I26" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J26" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K26" t="n">
         <v>2.2</v>
       </c>
       <c r="L26" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M26" t="n">
         <v>1.05</v>
@@ -4164,10 +4164,10 @@
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="T26" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
@@ -4220,16 +4220,16 @@
         <v>67</v>
       </c>
       <c r="AM26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN26" t="n">
         <v>34</v>
       </c>
       <c r="AO26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP26" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AQ26" t="n">
         <v>51</v>
@@ -4526,7 +4526,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>rNpTCLQb</t>
+          <t>llB0KXVA</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4536,65 +4536,69 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>INDONESIA - LIGA 1</t>
+          <t>MALAYSIA - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Persija Jakarta</t>
+          <t>Sri Pahang</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>PSIS Semarang</t>
+          <t>Kuching City FC</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.44</v>
+        <v>2.3</v>
       </c>
       <c r="H29" t="n">
-        <v>4.2</v>
+        <v>3.45</v>
       </c>
       <c r="I29" t="n">
-        <v>6.3</v>
+        <v>2.6</v>
       </c>
       <c r="J29" t="n">
-        <v>1.95</v>
+        <v>2.8</v>
       </c>
       <c r="K29" t="n">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="L29" t="n">
-        <v>5.7</v>
+        <v>3.05</v>
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="P29" t="n">
-        <v>3.65</v>
+        <v>4.9</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="n">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="T29" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.72</v>
+      </c>
       <c r="W29" t="n">
-        <v>2.32</v>
+        <v>2.9</v>
       </c>
       <c r="X29" t="n">
-        <v>1.47</v>
+        <v>1.31</v>
       </c>
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr"/>
@@ -4602,64 +4606,64 @@
         <v>1.7</v>
       </c>
       <c r="AB29" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="AC29" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AD29" t="n">
-        <v>7.5</v>
+        <v>10.75</v>
       </c>
       <c r="AE29" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AF29" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AK29" t="n">
         <v>10.25</v>
       </c>
-      <c r="AG29" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>14</v>
-      </c>
-      <c r="AJ29" t="n">
+      <c r="AL29" t="n">
+        <v>35</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>9</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AO29" t="n">
         <v>8.5</v>
       </c>
-      <c r="AK29" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>45</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AP29" t="n">
-        <v>150</v>
+        <v>24</v>
       </c>
       <c r="AQ29" t="n">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="AR29" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="AS29" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>llB0KXVA</t>
+          <t>rX1KRy34</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4669,134 +4673,142 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>MALAYSIA - SUPER LEAGUE</t>
+          <t>SCOTLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Sri Pahang</t>
+          <t>Airdrieonians</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Kuching City FC</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="G30" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="J30" t="n">
+        <v>6</v>
+      </c>
+      <c r="K30" t="n">
         <v>2.3</v>
       </c>
-      <c r="H30" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="I30" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="J30" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="K30" t="n">
-        <v>2.25</v>
-      </c>
       <c r="L30" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N30" t="n">
+        <v>11</v>
+      </c>
       <c r="O30" t="n">
-        <v>1.1</v>
+        <v>1.25</v>
       </c>
       <c r="P30" t="n">
-        <v>4.9</v>
+        <v>3.75</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr"/>
       <c r="S30" t="n">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="T30" t="n">
         <v>2</v>
       </c>
       <c r="U30" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V30" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W30" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="X30" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA30" t="n">
         <v>1.91</v>
       </c>
-      <c r="V30" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="W30" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="X30" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr"/>
-      <c r="AA30" t="n">
-        <v>1.7</v>
-      </c>
       <c r="AB30" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="AC30" t="n">
-        <v>8.25</v>
+        <v>17</v>
       </c>
       <c r="AD30" t="n">
-        <v>10.75</v>
+        <v>34</v>
       </c>
       <c r="AE30" t="n">
-        <v>7.8</v>
+        <v>21</v>
       </c>
       <c r="AF30" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK30" t="n">
         <v>19</v>
       </c>
-      <c r="AG30" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>10.25</v>
-      </c>
       <c r="AL30" t="n">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="AM30" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AN30" t="n">
-        <v>12.5</v>
+        <v>7</v>
       </c>
       <c r="AO30" t="n">
         <v>8.5</v>
       </c>
       <c r="AP30" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="AQ30" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AR30" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AS30" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>rX1KRy34</t>
+          <t>EmzGAbp3</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4816,132 +4828,128 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Airdrieonians</t>
+          <t>Queen's Park</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Falkirk</t>
+          <t>Ayr</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>6.25</v>
+        <v>3.1</v>
       </c>
       <c r="H31" t="n">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="I31" t="n">
-        <v>1.48</v>
+        <v>2.15</v>
       </c>
       <c r="J31" t="n">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="K31" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="L31" t="n">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="M31" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="N31" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O31" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="P31" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="n">
-        <v>1.85</v>
+        <v>2.03</v>
       </c>
       <c r="T31" t="n">
-        <v>2</v>
-      </c>
-      <c r="U31" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V31" t="n">
-        <v>2.05</v>
-      </c>
+        <v>1.83</v>
+      </c>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
       <c r="W31" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="X31" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="Y31" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="Z31" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AA31" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AB31" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AC31" t="n">
-        <v>17</v>
+        <v>9.5</v>
       </c>
       <c r="AD31" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF31" t="n">
         <v>34</v>
       </c>
-      <c r="AE31" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>67</v>
-      </c>
       <c r="AG31" t="n">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="AH31" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AI31" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AJ31" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AK31" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AL31" t="n">
         <v>51</v>
       </c>
       <c r="AM31" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AN31" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AO31" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP31" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AQ31" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AR31" t="n">
         <v>29</v>
       </c>
       <c r="AS31" t="n">
-        <v>800</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>EmzGAbp3</t>
+          <t>EoDTt9zH</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4951,105 +4959,105 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>SCOTLAND - CHAMPIONSHIP</t>
+          <t>TURKEY - 1. LIG</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Queen's Park</t>
+          <t>Manisa FK</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Ayr</t>
+          <t>Igdir FK</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="H32" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="I32" t="n">
-        <v>2.15</v>
+        <v>1.91</v>
       </c>
       <c r="J32" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="K32" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="L32" t="n">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="M32" t="n">
         <v>1.05</v>
       </c>
       <c r="N32" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="O32" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="P32" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="n">
-        <v>2.08</v>
+        <v>1.95</v>
       </c>
       <c r="T32" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
       <c r="W32" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="X32" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="Y32" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Z32" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AA32" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AB32" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AC32" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AD32" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE32" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF32" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG32" t="n">
         <v>29</v>
       </c>
       <c r="AH32" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI32" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AJ32" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AK32" t="n">
         <v>15</v>
@@ -5061,28 +5069,28 @@
         <v>7.5</v>
       </c>
       <c r="AN32" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO32" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AP32" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ32" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AR32" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AS32" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>EoDTt9zH</t>
+          <t>4zSBgnKM</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -5092,7 +5100,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -5102,266 +5110,125 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Amedspor</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Igdir FK</t>
+          <t>Genclerbirligi</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="H33" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1.91</v>
+        <v>3.1</v>
       </c>
       <c r="J33" t="n">
-        <v>4.33</v>
+        <v>3.1</v>
       </c>
       <c r="K33" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L33" t="n">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="M33" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N33" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O33" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="P33" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
+        <v>2.63</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R33" t="n">
+        <v>2.03</v>
+      </c>
       <c r="S33" t="n">
-        <v>1.95</v>
+        <v>2.35</v>
       </c>
       <c r="T33" t="n">
-        <v>1.85</v>
+        <v>1.57</v>
       </c>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
       <c r="W33" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="X33" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="Y33" t="n">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="Z33" t="n">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="AA33" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AB33" t="n">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="AC33" t="n">
-        <v>11</v>
+        <v>6.5</v>
       </c>
       <c r="AD33" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AE33" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AF33" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AG33" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AH33" t="n">
         <v>34</v>
       </c>
       <c r="AI33" t="n">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="AJ33" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AK33" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>8</v>
+      </c>
+      <c r="AN33" t="n">
         <v>15</v>
       </c>
-      <c r="AL33" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>9</v>
-      </c>
       <c r="AO33" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="AP33" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AQ33" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AR33" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AS33" t="n">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>4zSBgnKM</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>04/03/2025</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>14:30</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>TURKEY - 1. LIG</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Amedspor</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Genclerbirligi</t>
-        </is>
-      </c>
-      <c r="G34" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="H34" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I34" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J34" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K34" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L34" t="n">
-        <v>4</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N34" t="n">
-        <v>8</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P34" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="R34" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="S34" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="T34" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="X34" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>67</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>8</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>15</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP34" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ34" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR34" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS34" t="n">
         <v>351</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2025-03-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-04.xlsx
@@ -859,16 +859,16 @@
         <v>4.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q3" t="n">
         <v>2</v>
@@ -889,10 +889,10 @@
         <v>1.16</v>
       </c>
       <c r="W3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X3" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="Y3" t="n">
         <v>1.67</v>
@@ -1570,28 +1570,28 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="H8" t="n">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="I8" t="n">
-        <v>2.47</v>
+        <v>2.35</v>
       </c>
       <c r="J8" t="n">
-        <v>4</v>
+        <v>4.15</v>
       </c>
       <c r="K8" t="n">
         <v>1.82</v>
       </c>
       <c r="L8" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="M8" t="n">
         <v>1.15</v>
       </c>
       <c r="N8" t="n">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="O8" t="n">
         <v>1.62</v>
@@ -1622,22 +1622,22 @@
         <v>2.15</v>
       </c>
       <c r="AA8" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AB8" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="AC8" t="n">
-        <v>6.8</v>
+        <v>7.3</v>
       </c>
       <c r="AD8" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF8" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AG8" t="n">
         <v>40</v>
@@ -1646,34 +1646,34 @@
         <v>60</v>
       </c>
       <c r="AI8" t="n">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="AJ8" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AK8" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AL8" t="n">
         <v>150</v>
       </c>
       <c r="AM8" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="AN8" t="n">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="AO8" t="n">
         <v>10.25</v>
       </c>
       <c r="AP8" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AQ8" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AR8" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AS8" t="n">
         <v>101</v>
@@ -1711,34 +1711,34 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="H9" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="J9" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="K9" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="L9" t="n">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="M9" t="n">
         <v>1.12</v>
       </c>
       <c r="N9" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="O9" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="P9" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
@@ -1757,61 +1757,61 @@
         <v>1.17</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="Z9" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="AA9" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AD9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE9" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AF9" t="n">
         <v>90</v>
       </c>
       <c r="AG9" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AH9" t="n">
         <v>70</v>
       </c>
       <c r="AI9" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AJ9" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AK9" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AL9" t="n">
         <v>120</v>
       </c>
       <c r="AM9" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AN9" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="AO9" t="n">
         <v>8.75</v>
       </c>
       <c r="AP9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ9" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AR9" t="n">
         <v>40</v>
@@ -1852,113 +1852,113 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="H10" t="n">
-        <v>3.05</v>
+        <v>3.45</v>
       </c>
       <c r="I10" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="J10" t="n">
-        <v>2.37</v>
+        <v>2.1</v>
       </c>
       <c r="K10" t="n">
-        <v>1.91</v>
+        <v>2.15</v>
       </c>
       <c r="L10" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="M10" t="n">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>5.3</v>
+        <v>6.6</v>
       </c>
       <c r="O10" t="n">
-        <v>1.53</v>
+        <v>1.36</v>
       </c>
       <c r="P10" t="n">
-        <v>2.35</v>
+        <v>2.92</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
-        <v>2.52</v>
+        <v>2.05</v>
       </c>
       <c r="T10" t="n">
-        <v>1.47</v>
+        <v>1.7</v>
       </c>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="n">
-        <v>4.55</v>
+        <v>3.5</v>
       </c>
       <c r="X10" t="n">
-        <v>1.16</v>
+        <v>1.26</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.57</v>
+        <v>1.39</v>
       </c>
       <c r="Z10" t="n">
-        <v>2.27</v>
+        <v>2.75</v>
       </c>
       <c r="AA10" t="n">
-        <v>2.3</v>
+        <v>2.02</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="AC10" t="n">
-        <v>4.85</v>
+        <v>5.6</v>
       </c>
       <c r="AD10" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>6.8</v>
       </c>
-      <c r="AE10" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AF10" t="n">
+      <c r="AK10" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM10" t="n">
         <v>13.5</v>
       </c>
-      <c r="AG10" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>45</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>150</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AN10" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AO10" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AP10" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AQ10" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AR10" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AS10" t="n">
-        <v>101</v>
+        <v>900</v>
       </c>
     </row>
     <row r="11">
@@ -1993,22 +1993,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="H11" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I11" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="J11" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="K11" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L11" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M11" t="n">
         <v>1.1</v>
@@ -2017,30 +2017,30 @@
         <v>7</v>
       </c>
       <c r="O11" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P11" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="R11" t="n">
-        <v>2.03</v>
+        <v>1.93</v>
       </c>
       <c r="S11" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="T11" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="X11" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="Y11" t="n">
         <v>1.57</v>
@@ -2055,10 +2055,10 @@
         <v>1.62</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE11" t="n">
         <v>15</v>
@@ -2073,10 +2073,10 @@
         <v>51</v>
       </c>
       <c r="AI11" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AJ11" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AK11" t="n">
         <v>21</v>
@@ -2088,16 +2088,16 @@
         <v>5.5</v>
       </c>
       <c r="AN11" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AO11" t="n">
         <v>9.5</v>
       </c>
       <c r="AP11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AR11" t="n">
         <v>41</v>
@@ -2138,28 +2138,28 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H12" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I12" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J12" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K12" t="n">
         <v>2.2</v>
       </c>
       <c r="L12" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O12" t="n">
         <v>1.33</v>
@@ -2170,7 +2170,7 @@
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T12" t="n">
         <v>1.8</v>
@@ -2178,52 +2178,52 @@
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="X12" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Z12" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AB12" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AC12" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD12" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE12" t="n">
         <v>8.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH12" t="n">
         <v>29</v>
       </c>
       <c r="AI12" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AJ12" t="n">
         <v>7</v>
       </c>
       <c r="AK12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL12" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM12" t="n">
         <v>13</v>
@@ -2232,19 +2232,19 @@
         <v>29</v>
       </c>
       <c r="AO12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AQ12" t="n">
         <v>51</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>41</v>
       </c>
       <c r="AR12" t="n">
         <v>51</v>
       </c>
       <c r="AS12" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
     </row>
     <row r="13">
@@ -2294,7 +2294,7 @@
         <v>1.83</v>
       </c>
       <c r="L13" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
         <v>1.13</v>
@@ -2323,16 +2323,16 @@
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X13" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Z13" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AA13" t="n">
         <v>2.25</v>
@@ -2353,7 +2353,7 @@
         <v>26</v>
       </c>
       <c r="AG13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH13" t="n">
         <v>41</v>
@@ -2380,7 +2380,7 @@
         <v>12</v>
       </c>
       <c r="AP13" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ13" t="n">
         <v>29</v>
@@ -2424,22 +2424,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="H14" t="n">
         <v>3.2</v>
       </c>
       <c r="I14" t="n">
+        <v>3</v>
+      </c>
+      <c r="J14" t="n">
         <v>3.2</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3.1</v>
       </c>
       <c r="K14" t="n">
         <v>2</v>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M14" t="n">
         <v>1.08</v>
@@ -2476,22 +2476,22 @@
         <v>2.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AB14" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE14" t="n">
         <v>10</v>
       </c>
-      <c r="AE14" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AF14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG14" t="n">
         <v>21</v>
@@ -2515,16 +2515,16 @@
         <v>8</v>
       </c>
       <c r="AN14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP14" t="n">
         <v>34</v>
       </c>
       <c r="AQ14" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR14" t="n">
         <v>41</v>
@@ -2571,10 +2571,10 @@
         <v>3.6</v>
       </c>
       <c r="I15" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J15" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K15" t="n">
         <v>2.3</v>
@@ -2597,10 +2597,10 @@
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="T15" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="U15" t="n">
         <v>2</v>
@@ -2615,10 +2615,10 @@
         <v>1.44</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Z15" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AA15" t="n">
         <v>1.57</v>
@@ -2627,7 +2627,7 @@
         <v>2.25</v>
       </c>
       <c r="AC15" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD15" t="n">
         <v>11</v>
@@ -2645,10 +2645,10 @@
         <v>21</v>
       </c>
       <c r="AI15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ15" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AK15" t="n">
         <v>12</v>
@@ -2666,7 +2666,7 @@
         <v>12</v>
       </c>
       <c r="AP15" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ15" t="n">
         <v>23</v>
@@ -2675,7 +2675,7 @@
         <v>29</v>
       </c>
       <c r="AS15" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16">
@@ -2710,50 +2710,50 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="H16" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I16" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="J16" t="n">
         <v>4.33</v>
       </c>
       <c r="K16" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L16" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M16" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O16" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P16" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="T16" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
       <c r="W16" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="X16" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Y16" t="n">
         <v>1.44</v>
@@ -2762,16 +2762,16 @@
         <v>2.63</v>
       </c>
       <c r="AA16" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AB16" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AC16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD16" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AE16" t="n">
         <v>13</v>
@@ -2780,16 +2780,16 @@
         <v>41</v>
       </c>
       <c r="AG16" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AH16" t="n">
         <v>41</v>
       </c>
       <c r="AI16" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AJ16" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AK16" t="n">
         <v>15</v>
@@ -2801,13 +2801,13 @@
         <v>7</v>
       </c>
       <c r="AN16" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AO16" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ16" t="n">
         <v>17</v>
@@ -2816,7 +2816,7 @@
         <v>29</v>
       </c>
       <c r="AS16" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17">
@@ -2851,13 +2851,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="H17" t="n">
         <v>3.2</v>
       </c>
       <c r="I17" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="J17" t="n">
         <v>4</v>
@@ -2881,10 +2881,10 @@
         <v>2.63</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="R17" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="S17" t="n">
         <v>2.4</v>
@@ -2895,10 +2895,10 @@
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="X17" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="Y17" t="n">
         <v>1.53</v>
@@ -2916,10 +2916,10 @@
         <v>7.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF17" t="n">
         <v>34</v>
@@ -2931,7 +2931,7 @@
         <v>41</v>
       </c>
       <c r="AI17" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AJ17" t="n">
         <v>6.5</v>
@@ -2943,7 +2943,7 @@
         <v>67</v>
       </c>
       <c r="AM17" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AN17" t="n">
         <v>10</v>
@@ -2952,13 +2952,13 @@
         <v>10</v>
       </c>
       <c r="AP17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ17" t="n">
         <v>21</v>
       </c>
       <c r="AR17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AS17" t="n">
         <v>501</v>
@@ -3014,10 +3014,10 @@
         <v>4.5</v>
       </c>
       <c r="M18" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O18" t="n">
         <v>1.25</v>
@@ -3028,18 +3028,18 @@
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="T18" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="X18" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Y18" t="n">
         <v>1.4</v>
@@ -3137,22 +3137,22 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="H19" t="n">
         <v>3.1</v>
       </c>
       <c r="I19" t="n">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="J19" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="K19" t="n">
         <v>2.05</v>
       </c>
       <c r="L19" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M19" t="n">
         <v>1.07</v>
@@ -3169,18 +3169,18 @@
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="T19" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="X19" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Y19" t="n">
         <v>1.44</v>
@@ -3195,19 +3195,19 @@
         <v>1.91</v>
       </c>
       <c r="AC19" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE19" t="n">
         <v>10</v>
       </c>
       <c r="AF19" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH19" t="n">
         <v>34</v>
@@ -3225,16 +3225,16 @@
         <v>51</v>
       </c>
       <c r="AM19" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AN19" t="n">
         <v>13</v>
       </c>
       <c r="AO19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ19" t="n">
         <v>23</v>
@@ -3278,22 +3278,22 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="H20" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I20" t="n">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="J20" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="K20" t="n">
         <v>2.2</v>
       </c>
       <c r="L20" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="M20" t="n">
         <v>1.05</v>
@@ -3330,22 +3330,22 @@
         <v>2.75</v>
       </c>
       <c r="AA20" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AB20" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AC20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD20" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE20" t="n">
         <v>8.5</v>
       </c>
       <c r="AF20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG20" t="n">
         <v>15</v>
@@ -3354,37 +3354,37 @@
         <v>26</v>
       </c>
       <c r="AI20" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AJ20" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AK20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL20" t="n">
         <v>51</v>
       </c>
       <c r="AM20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN20" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP20" t="n">
         <v>51</v>
       </c>
       <c r="AQ20" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR20" t="n">
         <v>41</v>
       </c>
       <c r="AS20" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21">
@@ -3455,10 +3455,10 @@
         <v>2.05</v>
       </c>
       <c r="S21" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="T21" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
@@ -3724,35 +3724,35 @@
         <v>2.1</v>
       </c>
       <c r="L23" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M23" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O23" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P23" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="T23" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="X23" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Y23" t="n">
         <v>1.4</v>
@@ -3761,19 +3761,19 @@
         <v>2.75</v>
       </c>
       <c r="AA23" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AB23" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AC23" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD23" t="n">
         <v>11</v>
       </c>
       <c r="AE23" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF23" t="n">
         <v>21</v>
@@ -3782,19 +3782,19 @@
         <v>19</v>
       </c>
       <c r="AH23" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI23" t="n">
         <v>10</v>
       </c>
       <c r="AJ23" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AK23" t="n">
         <v>13</v>
       </c>
       <c r="AL23" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM23" t="n">
         <v>10</v>
@@ -3809,7 +3809,7 @@
         <v>34</v>
       </c>
       <c r="AQ23" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR23" t="n">
         <v>34</v>
@@ -3853,68 +3853,72 @@
         <v>2</v>
       </c>
       <c r="H24" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I24" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J24" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K24" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L24" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="M24" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O24" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P24" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
+        <v>2.63</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2.03</v>
+      </c>
       <c r="S24" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="T24" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="X24" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="Y24" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Z24" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AA24" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="AB24" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AC24" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD24" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF24" t="n">
         <v>17</v>
@@ -3926,7 +3930,7 @@
         <v>34</v>
       </c>
       <c r="AI24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ24" t="n">
         <v>6</v>
@@ -3935,28 +3939,28 @@
         <v>17</v>
       </c>
       <c r="AL24" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM24" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AN24" t="n">
         <v>19</v>
       </c>
       <c r="AO24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP24" t="n">
         <v>41</v>
       </c>
       <c r="AQ24" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR24" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS24" t="n">
-        <v>351</v>
+        <v>501</v>
       </c>
     </row>
     <row r="25">
@@ -3991,22 +3995,22 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="H25" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="I25" t="n">
-        <v>5</v>
+        <v>4.1</v>
       </c>
       <c r="J25" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K25" t="n">
         <v>2.2</v>
       </c>
-      <c r="K25" t="n">
-        <v>2.25</v>
-      </c>
       <c r="L25" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="M25" t="n">
         <v>1.05</v>
@@ -4015,62 +4019,62 @@
         <v>11</v>
       </c>
       <c r="O25" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P25" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T25" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="X25" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Z25" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AA25" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AB25" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AC25" t="n">
         <v>7</v>
       </c>
       <c r="AD25" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE25" t="n">
         <v>8.5</v>
       </c>
       <c r="AF25" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AG25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH25" t="n">
         <v>26</v>
       </c>
       <c r="AI25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ25" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AK25" t="n">
         <v>17</v>
@@ -4079,19 +4083,19 @@
         <v>51</v>
       </c>
       <c r="AM25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO25" t="n">
         <v>13</v>
       </c>
-      <c r="AN25" t="n">
-        <v>26</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>17</v>
-      </c>
       <c r="AP25" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AQ25" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR25" t="n">
         <v>41</v>
@@ -4132,65 +4136,65 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.48</v>
+        <v>1.36</v>
       </c>
       <c r="H26" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="I26" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="J26" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="K26" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L26" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M26" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N26" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O26" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="P26" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="n">
-        <v>2.03</v>
+        <v>1.75</v>
       </c>
       <c r="T26" t="n">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="X26" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Z26" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AA26" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AB26" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AC26" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AD26" t="n">
         <v>6.5</v>
@@ -4199,19 +4203,19 @@
         <v>8.5</v>
       </c>
       <c r="AF26" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH26" t="n">
         <v>29</v>
       </c>
       <c r="AI26" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AJ26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK26" t="n">
         <v>21</v>
@@ -4220,16 +4224,16 @@
         <v>67</v>
       </c>
       <c r="AM26" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AN26" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AO26" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP26" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AQ26" t="n">
         <v>51</v>
@@ -4238,7 +4242,7 @@
         <v>51</v>
       </c>
       <c r="AS26" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
     </row>
     <row r="27">
@@ -4710,24 +4714,24 @@
         <v>2</v>
       </c>
       <c r="M30" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N30" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O30" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P30" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr"/>
       <c r="S30" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T30" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="U30" t="n">
         <v>1.8</v>
@@ -4766,7 +4770,7 @@
         <v>67</v>
       </c>
       <c r="AG30" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH30" t="n">
         <v>51</v>
@@ -4778,7 +4782,7 @@
         <v>8</v>
       </c>
       <c r="AK30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL30" t="n">
         <v>51</v>
@@ -4837,28 +4841,28 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="H31" t="n">
         <v>3.3</v>
       </c>
       <c r="I31" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="J31" t="n">
         <v>3.75</v>
       </c>
       <c r="K31" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L31" t="n">
         <v>2.75</v>
       </c>
       <c r="M31" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N31" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O31" t="n">
         <v>1.3</v>
@@ -4869,10 +4873,10 @@
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="T31" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr"/>
@@ -4883,22 +4887,22 @@
         <v>1.3</v>
       </c>
       <c r="Y31" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Z31" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AA31" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AB31" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AC31" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD31" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE31" t="n">
         <v>12</v>
@@ -4913,7 +4917,7 @@
         <v>34</v>
       </c>
       <c r="AI31" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AJ31" t="n">
         <v>6.5</v>
@@ -4937,7 +4941,7 @@
         <v>19</v>
       </c>
       <c r="AQ31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR31" t="n">
         <v>29</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-04.xlsx
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H6" t="n">
         <v>3</v>
@@ -1284,7 +1284,7 @@
         <v>3.25</v>
       </c>
       <c r="K6" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L6" t="n">
         <v>4</v>
@@ -1296,16 +1296,16 @@
         <v>6.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P6" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R6" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S6" t="n">
         <v>2.5</v>
@@ -1314,10 +1314,10 @@
         <v>1.5</v>
       </c>
       <c r="U6" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="V6" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W6" t="n">
         <v>5</v>
@@ -1362,7 +1362,7 @@
         <v>6</v>
       </c>
       <c r="AK6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL6" t="n">
         <v>67</v>
@@ -1442,7 +1442,7 @@
         <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O7" t="n">
         <v>1.44</v>
@@ -1463,7 +1463,7 @@
         <v>1.57</v>
       </c>
       <c r="U7" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="V7" t="n">
         <v>1.29</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-04.xlsx
@@ -1272,13 +1272,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.45</v>
+        <v>2.32</v>
       </c>
       <c r="H6" t="n">
         <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J6" t="n">
         <v>3.25</v>
@@ -1290,22 +1290,22 @@
         <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P6" t="n">
         <v>2.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="R6" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="S6" t="n">
         <v>2.5</v>
@@ -1323,7 +1323,7 @@
         <v>5</v>
       </c>
       <c r="X6" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="Y6" t="n">
         <v>1.57</v>
@@ -1371,7 +1371,7 @@
         <v>7.5</v>
       </c>
       <c r="AN6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO6" t="n">
         <v>12</v>
@@ -1421,22 +1421,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="H7" t="n">
         <v>3.3</v>
       </c>
       <c r="I7" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="J7" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="K7" t="n">
         <v>2</v>
       </c>
       <c r="L7" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="M7" t="n">
         <v>1.08</v>
@@ -1445,10 +1445,10 @@
         <v>8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P7" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q7" t="n">
         <v>1.78</v>
@@ -1463,10 +1463,10 @@
         <v>1.57</v>
       </c>
       <c r="U7" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="V7" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="W7" t="n">
         <v>4.33</v>
@@ -1475,10 +1475,10 @@
         <v>1.2</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AA7" t="n">
         <v>2.1</v>
@@ -1487,22 +1487,22 @@
         <v>1.67</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE7" t="n">
         <v>15</v>
       </c>
       <c r="AF7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG7" t="n">
         <v>41</v>
       </c>
       <c r="AH7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI7" t="n">
         <v>7.5</v>
@@ -1526,16 +1526,16 @@
         <v>9</v>
       </c>
       <c r="AP7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ7" t="n">
         <v>17</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>19</v>
       </c>
       <c r="AR7" t="n">
         <v>34</v>
       </c>
       <c r="AS7" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">

--- a/Jogos_da_Semana_FlashScore_2025-03-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-04.xlsx
@@ -1421,28 +1421,28 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="H7" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="K7" t="n">
         <v>2</v>
       </c>
       <c r="L7" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
         <v>1.4</v>
@@ -1457,16 +1457,16 @@
         <v>2.1</v>
       </c>
       <c r="S7" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="T7" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="U7" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="V7" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="W7" t="n">
         <v>4.33</v>
@@ -1493,7 +1493,7 @@
         <v>21</v>
       </c>
       <c r="AE7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF7" t="n">
         <v>51</v>
@@ -1517,10 +1517,10 @@
         <v>67</v>
       </c>
       <c r="AM7" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AN7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AO7" t="n">
         <v>9</v>
